--- a/deuChatbot/research_result/table_to_json(3000_100).xlsx
+++ b/deuChatbot/research_result/table_to_json(3000_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20915,6 +20915,6865 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보가 부족하며, 시험 일정과 평가 항목에 대한 설명이 잘못된 정보로 보입니다. 예를 들어, 실제 시험 일정이 2024년 1월 16일로 언급되었으나, 원본 텍스트에는 그러한 정보가 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 특히, 시험 일정과 평가 항목에 대한 설명이 원본 텍스트와 상충합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 제공하려고 하지만, 원본 텍스트의 주요 내용과는 다소 벗어난 부분이 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족합니다. 특히, 원본 텍스트의 정보와 연결되지 않는 부분이 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 예를 들어, 시험 일정과 평가 항목에 대한 설명이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 일부 정보가 부정확하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 정보가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8027353926033157</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 등 다양한 분야에서 요구되는 기술을 평가하는 내용이 포함됩니다. 하지만 제공된 정보에는 디자인조형학과의 실기시험 일정이나 구체적인 평가 항목에 대한 설명이 없습니다.
+실제로는 각 학과별로 실기시험은 다음과 같은 방식으로 진행될 수 있습니다:
+1. **디자인 작업**: 특정 주제나 문제를 기반으로 디자인 작업을 수행합니다.
+2. **도면 그리기**: 제품이나 공간의 도면을 정확하게 그리고 분석하는 능력을 평가합니다.
+3. **공예 실습**: 다양한 공예 기법을 활용하여 작품을 제작합니다.
+실제 시험 일정은 다음과 같습니다:
+- **일정**: 2024년 1월 16일 (화)
+- **대기실 및 입실 시간 안내**: 2024년 1월 12일 (금) 14:00 이후, 입학안내 홈페이지에서 확인 가능합니다.
+추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8458507467831952</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환' 두 가지입니다.
+준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 잠자리와 저울을 연결한 주제를 들 수 있습니다. 주제A에는 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지가 포함되며, 주제B에는 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 등이 있습니다.
+화지크기는 켄트지3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9019475464782964</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 경기지도학과에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 항목들을 올바르게 나열하고 있습니다. 또한, 주제 추첨 방식에 대한 설명도 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 주제와 추첨 방식에 대한 설명이 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다. 모든 정보가 원본 텍스트와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 자연스러운 표현이 사용되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7804034691267129</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+주제A에는 다음과 같은 항목들이 포함되어 있습니다:
+- 잠자리
+- 무궁화
+- 피망 (파프리카)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B에는 다음과 같은 항목들이 포함되어 있습니다:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+당일은 주제A와 주제B 각각에서 1개씩을 추첨하여 연결된 주제를 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 나군 학생부교과 전형에 반영되지 않는다는 사실을 정확하게 전달하고 있습니다. 그러나 "출결 점수는 특정 전형에만 반영되며"라는 문장은 다소 모호하게 느껴질 수 있습니다. 이로 인해 완전한 정확성에는 약간의 부족함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 출결 점수가 반영되지 않는다고 언급하고 있습니다. 그러나 "출결 점수는 특정 전형에만 반영되며"라는 추가 정보는 원문에 포함되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용에 직접적으로 관련된 정보를 제공합니다. 출결 점수가 반영되지 않는다는 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "출결 상황이 반영되지 않습니다" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 "출결 점수는 특정 전형에만 반영되며"라는 문장이 다소 불필요하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, 추가된 정보가 원문에 명시되어 있지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 정보의 추가로 인해 약간의 일관성과 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7087702409877767</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부교과 전형에서는 출결 상황이 반영되지 않습니다. 출결 점수는 특정 전형에만 반영되며, 나군 학생부교과 전형은 출결 점수가 반영되지 않는 것으로 보입니다.
+더 자세한 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원 수와 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9740829156607574</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원 수와 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8393541334203359</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 모집하는 인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본의 내용과 전혀 일치하지 않으며, 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있습니다. 간호학과의 모집 인원에 대한 질문에 대한 답변으로 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 설명을 제공합니다. 그러나 원본과의 불일치로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7202915878710426</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 영어영역 등급에 따른 점수를 잘못 제시하고 있으며, 원본 텍스트의 정보와 완전히 다릅니다. 모든 등급의 점수가 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본의 점수와 생성된 점수는 전혀 관련이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 수능 영어 등급에 대한 점수를 다루고 있지만, 제공된 점수는 원본 텍스트와 관련이 없고, 주제와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 품질은 낮습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 정확성이 전혀 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 수능 영어 등급에 대한 점수를 다루고 있지만, 제공된 정보가 부정확하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성이 떨어져 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.7918312692937219</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 350점
+- 등급 2: 325점
+- 등급 3: 300점
+- 등급 4: 275점
+- 등급 5: 250점
+- 등급 6: 225점
+이 점수는 각 등급별로 제자리 멀리뛰기와 Z-런의 성적을 합산할 때 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 주장하고 있으나, 이는 원문에서 명확히 부정된 내용입니다. 원문에 따르면 예술고 출신자는 지원할 수 없으므로, 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서 예술고 학생의 지원 불가능성을 명시했음에도 불구하고, 생성된 응답은 지원 가능하다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서의 핵심 내용인 지원 불가능성을 무시하고 다른 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나누어져 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약해집니다. 원문과의 관계가 명확하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 예술고 학생의 지원 가능성에 대한 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 바탕으로 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7158290954710569</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군의 학생부교과 농어촌학생전형으로 지원하는 것은 가능합니다. 그러나 지원 자격과 제출 서류가 다르므로 주의해야 합니다.
+1. **지원 자격**:
+   - **6년 과정**: 중·고등학교 재학기간 동안 본인 및 부모 모두 농어촌(읍·면)지역에 거주한 자.
+   - **12년 과정**: 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자.
+2. **제출 서류**:
+   - 6년 과정: 
+     - 지원자 본인의 가족관계증명서 1부
+     - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+     - 중학교 학교생활기록부 1부
+     - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 12년 과정: 
+     - 지원자 본인의 주민등록초본 1부
+     - 초등학교 학교생활기록부 1부
+     - 중학교 학교생활기록부 1부
+     - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+따라서 예술고 학생이 농어촌 지역에 거주한 경력을 가지고 있다면 해당 자격을 충족시킬 수 있으며, 제출 서류를 준비해야 합니다. 만약 자세한 내용이나 추가적인 질문이 있으시다면 https://ipsi. deu. ac. kr/main. do로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 기록과 배점이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 잘 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.9106685052065562</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같이 확인할 수 있습니다:
+- 등급: 4
+- 제자리 멀리뛰기(여): 218~221cm
+- 배점: 275
+위와 같은 기록을 달성하면 레저스포츠학과에서 275점을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 구체적인 정보를 제공하지 않고 있으며, 출결 반영 비율이 12%라는 사실을 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 경기지도학과의 출결 반영 비율에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트와 상충하므로 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 경기지도학과의 출결 반영 비율에 대한 정확한 정보를 제공하지 않으므로 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았으므로 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 정보가 부족하여 의미적으로 적절하지 않습니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 어느 정도 이해할 수 있지만, 핵심 정보가 결여되어 있어 완전한 이해를 방해합니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5711440534809793</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과의 출결 상황에 대한 반영 방법은 직접적으로 언급되어 있지 않습니다. 다른 학과들에서는 결석일수와 반영점수를 연결하여 설명하고 있지만, 경기지도학과의 경우 해당 정보가 포함되어 있지 않아 정확한 답변을 드리기 어렵습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 물리치료학과의 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 잘못된 정보(0명 모집)를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 4명을 모집한다고 명시하고 있지만, 생성된 응답은 모집 인원이 0명이라고 잘못 언급하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제를 제대로 다루지 못하고 있습니다. 정보가 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성이 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7108183403488386</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 물리치료학과에 대한 정보가 제공되어 있지 않습니다. 나군이나 다군에서 물리치료학과에 대한 모집 인원이 0명으로 표기되어 있습니다만, 가군의 경우 확인된 정보가 없습니다.
+추가로 필요한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 내용을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정과 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4952070038361903</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 "수능 최저기준 없음"이라는 사실을 잘 반영하고 있으며, 구체적인 점수는 언급되지 않았다고 설명하고 있습니다. 그러나 "명확히 확인할 수 없다"는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원문과 일치하는 부분이 있지만, "명확히 확인할 수 없다"는 표현은 원문과의 일관성을 떨어뜨립니다. 원문은 수능 최저 기준이 없다고 명확히 언급하고 있기 때문에, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저기준에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 추가적인 확인 방법도 제시하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 "명확히 확인할 수 없다"는 부분이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 일치하며, 수능 최저기준이 없다는 점을 정확히 반영하고 있습니다. 그러나 "명확히 확인할 수 없다"는 표현이 다소 부정확하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 "명확히 확인할 수 없다"는 표현이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5144739521616889</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서에서 명확히 확인할 수 없습니다. 해당 학과의 수능 최저기준이 없음을 나타내는 "수능최저기준 없음"이라는 표현이 사용되었지만, 구체적인 점수는 언급되지 않았습니다.
+문서에서 수능 최저기준에 대한 정보가 제공되지 않은 경우, 일반적으로 다음과 같은 방법으로 확인할 수 있습니다:
+1. 동의대학교의 공식 웹사이트를 방문하여 2024학년도 입시 안내 페이지를 확인합니다.
+2. 해당 페이지에서 응용화학과의 입학 조건을 찾아보세요.
+만약 이러한 정보가 없거나 추가로 필요한 경우, https://ipsi. deu. ac. kr/main. do 를 참조하여 동의대학교의 공식 입시 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "경기지도학과"만 언급하고 있으며, 다른 신설 학과들에 대한 정보는 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 전체 학과 목록을 제공하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답하고 있으므로 관련성이 높지만, 전체 정보를 제공하지 않아 약간의 점수를 잃었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 문법적으로 올바르고 읽기 쉬우나, 정보의 부족으로 인해 약간의 흐름이 끊기는 느낌이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 주제를 가지고 있지만, 전체적인 맥락에서 다른 학과에 대한 언급이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: "경기지도학과"는 신설된 학과 중 하나이지만, 다른 학과들이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로 적절하지만, 전체 맥락을 고려할 때 정보가 부족하여 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하고 이해하기 쉬우나, 정보의 부족으로 인해 전체적인 이해가 제한됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.4914700105584141</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과는 "경기지도학과"입니다. 이 정보는 제공된 컨텍스트 내에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그에 대한 부정확한 정보를 제공합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 답변을 제공하지 않으며, 관련성이 전혀 없습니다. 원본 텍스트의 정보에 대한 직접적인 언급이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 정보가 없다는 주장은 원본 텍스트의 내용과 논리적으로 연결되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있으나, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6653357838047194</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 데이터가 없습니다. 따라서, 해당 정보를 찾기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 자세한 내용을 확인해보시거나, 동의대학교 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 잘못된 정보를 제공합니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있으며, 전기공학과와 전자공학과는 언급되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 답하고 있지만, 제공된 정보가 사실과 일치하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전기공학과와 전자공학과에 대한 정보는 잘못된 것입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7302903295067247</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>2024학년도 모집에서 수능 가산점을 적용하는 학과는 '전기공학과, 전자공학과'입니다. 이들 학과는 수학(미적분 또는 기하) 응시자를 대상으로 수학 표준점수에 0.1을 곱한 점수를 가산합니다.
+따라서, 동의대학교에서 수능 가산점을 적용하는 학과는 **전기공학과와 전자공학과**입니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 구체적인 내용을 제공하고 있지만, 원본 텍스트에서 언급된 "100% 반영"이라는 중요한 사실을 누락하고 있습니다. 또한, 수능 성적 반영 방법에 대한 세부 사항이 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 수능 성적 반영 방법에 대한 설명이 원본의 내용과 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있어 원본 텍스트와 관련이 있지만, 원본의 핵심 내용인 "100% 반영"을 누락하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 모집단위에 대한 설명이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 수능 성적 반영 방법에 대한 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 핵심 내용을 반영하지 않아 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7200209052803752</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+1. **인문사회과학, 상경대학 모집단위**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+2. **의료·보건·생활, 공과대학, ICT융합공과대학 모집단위**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+   - 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수 x 0.1 가산
+3. **레저스포츠학과, 태권도학과**:
+   - 수능 4개 영역(국어, 수학, 영어, 탐구) 중 상위 3개 영역의 표준점수 및 등급점수 합산 후 ÷ 2
+이러한 방식으로 수능 성적을 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 날짜와 관련된 정보가 정확하며, 실기고사가 레저스포츠학과와 태권도학과에서 실시된다는 추가 정보도 포함되어 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 학과 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 실기고사 날짜와 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실적입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7529235245905265</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 그 날짜는 2024. 01. 16.(화)입니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 나군 수능(일반학생전형)에서 제외되는 학과에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답에서는 "모집이 중지된 단과대학 및 계열은 없습니다"라고 잘못된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 특정 학과가 제외된다고 명시했으나, 생성된 응답에서는 그런 학과가 없다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서 제외된 학과에 대한 정확한 정보를 제공하지 않기 때문에 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 원문에서 명확히 언급된 학과들이 제외되었다는 사실을 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문에서 요구하는 정보와는 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.6082709639307267</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 모집이 중지된 단과대학 및 계열은 없습니다. 하지만 일부 학과 또는 계열이 이름을 변경하거나 분리되었습니다.
+예를 들어, "디자인조형학과"는 2023년도에는 모집되었지만 2024년도에는 모집이 중지되었습니다.
+따라서, 2024학년도 동의대학교 나군 수능(일반학생전형)에서는 특정 학과 또는 계열이 모집되지 않는 것이 아니라 이름만 변경되거나 분리된 경우가 있습니다. 정확한 정보를 얻기 위해서는 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 최신 정보를 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가된 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 주장을 반복하여 강조하고 있습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 최저기준에 대한 질문에 직접적으로 답변하고 있습니다. 추가된 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8119034299282049</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 관련 정보는 다음과 같습니다:
+```
+"전형 유형": "수능 위주",
+"전형명": "다군 수능(일반학생전형) 전 모집단위",
+"모집 인원": 180,
+"사정 단계":  "일괄 합산",
+"전형요소 반영비율(%)": {
+    "학생부 교과": 0,
+    "출결": 0,
+    "서류": 0,
+    "면접": 0,
+    "실기": 0,
+    "수능": 100
+},
+"수능최저기준": "수능최저기준 없음"
+```
+따라서, 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 모든 학과의 이름과 변화를 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 학과의 이름과 변환 과정이 정확하게 전달되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 자연스러운 한국어 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다. 각 학과의 변화가 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8590524148123295</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 아동학과 (原来是保育·家政咨询学系)
+2. 금융경영학과 (原来是经济金融保险学系)
+3. 경영정보학과, e비즈니스학과 (原来是信息经营管理学系(经营信息学,e商务学))
+4. 부동산자산경영학부(부동산투자학, 부동산개발경영학) (原来是房地产金融·资产经营管理学系)
+5. 기계공학과, 로봇자동화공학과, 자동차공학과 (原来是机械汽车机器人部品工学系)
+6. 신소재공학과, 고분자나노공학과 (原来是新材料工学系)
+7. 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과 (原来是建筑工学系)
+8. 화학공학과, 환경공학과, 응용화학과 (原来是化学环境工学系)
+9. 의생명공학과, 바이오의약공학과, 식품공학과 (原来是生物应用工学系)
+10. 인간공학과, 제품디자인공학과 (原来是设计工程学系)
+11. 산업경영빅데이터공학과 (原来是产业融合信息技术学系)
+12. 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) (原来是创意软件工学系)
+13. 전기공학과, 전자공학과 (原来是电气电子通信工学系)
+14. 음악학과(클래식, 실용음악, 뉴미디어작곡) (原来是音乐学系)
+위와 같이 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 "마감일은 2024년 1월 6일(토)까지입니다."라는 표현은 약간의 모호함을 주며, 마감 시간이 18시라는 중요한 세부사항을 명확히 전달하지 못하고 있습니다. 추가된 정보는 유용하지만, 원본의 핵심 사실을 약간 변형시켰습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, "마감일은 2024년 1월 6일(토)까지입니다."라는 표현은 원본의 "18시"라는 마감 시간을 누락하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 원서접수 마감일과 관련된 추가 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원서접수 기간과 마감 시간을 설명하는 데 일관성을 유지하고 있습니다. 그러나 마감 시간에 대한 명확한 언급이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본의 사실을 대체로 정확하게 반영하고 있지만, 마감 시간이 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 마감 시간에 대한 명확한 언급이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 마감 시간에 대한 명확한 언급이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8083080089523629</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 원서접수는 2024년 1월 3일(수)부터 2024년 1월 6일(토)까지 접수 가능하며, 마감 시간은 각 날짜별로 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있지만, 원본 텍스트의 세부 사항과 일치하지 않습니다. 특히, '학생부교과'와 관련된 전형의 비율이 잘못 기재되어 있으며, '나군 학생부교과(농어촌학생전형)'와 같은 전형은 원본 텍스트에 언급되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제시된 전형 요소와 비율이 정확히 반영되지 않았고, 새로운 전형이 추가되어 혼란을 초래하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어져 있습니다. 원본 텍스트의 구체적인 전형 요소 변화에 대한 설명이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 전형의 비율과 관련된 정보가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 많아 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.770703165079051</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **학생부교과**:
+   - **나군 학생부교과(농어촌학생전형)  - 정원외**: 서류와 면접 비율이 변경되었습니다.
+     - 이전: 서류 0%, 면접 0%
+     - 변경된 내용: 서류 70%, 면접 30%
+2. **학생부종합**:
+   - **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**: 서류와 면접 비율이 변경되었습니다.
+     - 이전: 서류 0%, 면접 0%
+     - 변경된 내용: 서류 70%, 면접 30%
+위의 변화는 전형 요소 반영비율에 대한 변경사항을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.83865139055489</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 70%의 비중을 차지합니다. 
+상세 정보는 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 70%
+- 수능: 30%
+따라서, 가군 실기/실적 전형에서의 실기 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록도 일치합니다. 추가적인 설명도 원본의 사실을 왜곡하지 않고 보완하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8313552464637032</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 구성하고 있습니다. 
+라이프융합학부의 세부 전공 구성은 다음과 같습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+이러한 세부 전공들은 각각의 특성과 필요성을 반영하여 신설되었으며, 학생들이 다양한 분야에서 실질적인 역량을 키울 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 '태권도학과'를 언급하고 있지만, 원본 텍스트에는 '태권도학과'가 포함되어 있지 않으며, '체육학과'가 포함되어 있습니다. 또한, 실기고사 날짜에 대한 정보는 원본 텍스트에 없으므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '체육학과' 대신 '태권도학과'를 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다. 그러나 실기고사 관련 추가 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사에 대한 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - '태권도학과'라는 정보는 원본 텍스트에 없으며, 실기고사 날짜도 원본에 명시되어 있지 않으므로 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 다르며, 특히 학과 명칭에서의 불일치로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.604970156060848</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 가군에서 실기고사를 치르는 학과는 레저스포츠학과와 태권도학과입니다. 이들 학과에서는 2024년 1월 16일 화요일에 실기고사가 진행됩니다.
+참고로, 실기고사에 참여해야 하는 학생들은 대기실 및 입실시간 안내를 받을 수 있으며, 이는 2024년 1월 12일 금요일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보가 아닌, 다른 전형(가군, 나군, 다군)에 대한 정보를 제공하고 있습니다. 원본 텍스트에서 언급된 학과들은 포함되어 있지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 전형에 대한 정보를 제공하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기/실적 위주 전형에 대한 질문에 대한 답변이 아닙니다. 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용이 부적절하여 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.541193897833977</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '가군'과 '나군'으로 모집하는 학과들이 있습니다. 
+- **가군**: 
+  - 컴퓨터공학과 (교직)
+  - 소프트웨어공학부 (컴퓨터소프트웨어공학, 응용소프트웨어공학)
+- **나군**:
+  - 인공지능학과
+  - 전기공학과 (교직)
+  - 전자공학과 (교직)
+  - 디지털콘텐츠학과
+  - 게임공학과
+  - 소프트웨어융합학과
+- **다군**:
+  - 현재는 모집이 없거나 특정 조건을 만족해야 하는 학과들이 있습니다.
+따라서, 실기/실적 위주 전형을 지원하려면 위의 학과들 중에서 해당하는 학과를 선택하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부에서 제공하는 전공을 대부분 정확하게 나열하고 있습니다. 그러나 "스마트업창업투자학"이라는 전공명은 원문에 있는 "스타트업창업투자학"과 다릅니다. 이로 인해 약간의 부정확성이 발생합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관성을 유지하고 있습니다. 전공 목록이 대부분 일치하지만, 전공명 하나가 다르게 표기되어 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 전공에 대한 정보를 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "스마트업창업투자학"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 추가 정보가 잘 연결되어 있습니다. 그러나 전공명에서의 불일치로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록의 대부분이 정확하지만, 하나의 전공명이 잘못 표기되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 전공명에서의 오류로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞아떨어지지만, 전공명에서의 오류로 인해 약간의 의미적 부적절성이 발생합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 전공명에서의 혼동이 있을 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8636128616917033</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 "나군 학생부교과(농어촌학생전형)  - 정원외 제출서류" 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 마이스터고에 대한 설명이 포함되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관성을 유지하고 있으며, 특수목적고등학교 학생의 지원 가능성을 잘 설명하고 있습니다. 그러나 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 약간의 중복된 정보가 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 농어촌학생전형에 대한 세부사항이 누락되어 있어 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 질문의 맥락에 적절하게 대응하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없어서 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6384650838518473</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 특수목적고등학교(예를 들어 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고) 학생은 일반학생전형으로 지원 가능합니다. 
+특히 "2024학년도 동의대학교 고교유형별 지원자격" 항목을 보면, 가군과 나군에서 일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고), 특성화고, 영재학교, 기타 학교 등 다양한 고등학교 유형의 학생들이 지원 가능하다는 내용을 확인할 수 있습니다.
+따라서, 특수목적고등학교 학생으로서 일반학생전형으로 동의대학교에 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과가 가장 많이 모집하는 학과라고 언급하고 있지만, 실제로는 중어중국학과와 신소재공학과가 동일하게 32명을 모집한다고 명시되어 있습니다. 또한, 중어중국학과의 모집 인원으로 24명을 언급한 것은 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과가 가장 많이 모집하는 학과라고 주장하지만, 원문에서는 중어중국학과와 신소재공학과가 동일하게 모집 인원이 많다고 명시되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 모집 인원에 대한 정보를 제공하고 있지만, 원문에서 명시된 두 학과를 모두 언급하지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 모집 인원에 대한 정보를 체계적으로 제시하고 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과의 모집 인원에 대한 잘못된 정보를 포함하고 있으며, 원문에서 제공된 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 제공된 정보와 다르게 해석되고 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.7602605527478874</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 모집 인원을 확인해야 합니다. 제공된 정보를 바탕으로, 가장 많은 모집 인원을 가진 학과를 찾아보겠습니다.
+- 중어중국학과: 24명
+- 일본학과: 5명
+- 기타 학과들 (모집 인원은 각각 9명, 180명 등으로 비교적 적음)
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **중어중국학과**입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 정확하게 반영하고 있습니다. 그러나, 원문에서 언급된 특정 고등학교의 종류(과학고, 국제고, 외국어고, 체육고, 예술고)에 대한 구체적인 언급이 없어서 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 지원 자격을 설명하고 있습니다. 다만, 원문에서 언급된 특정 고등학교의 종류에 대한 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 자연스럽지 않을 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 그러나 원문과의 연결이 다소 약해 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 고등학교의 종류에 대한 정보가 누락되어 있어 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 특정 고등학교의 종류에 대한 정보가 부족하여 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 표현이 다소 복잡할 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4965271653231354</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，根据提供的信息，东义大学的农区学生专项型学生活动录取资格如下：
+- 特殊目的高中：不支持（지원 불가능）
+因此，作为特殊目的高中的学生，你不能通过东义大学的学生部学业农区学生专项型进行申请。建议你可以查看其他适合你的录取类型。
+如果你需要更多信息或有其他问题，请告诉我！
+https://ipsi.deu.ac.kr/main.do 提供了更多详细信息，你可以访问该网站获取最新情况。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 통계가 포함되어 있지 않다는 점은 맞지만, "다른 전공들에 대한 성적 통계만이 있습니다"라는 부분은 원문에 명시되어 있지 않은 정보입니다. 따라서 일부 사실이 정확하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 다른 전공에 대한 성적 통계가 있다는 주장은 원문에 포함되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 필요한 정보를 찾기 위한 웹사이트를 언급하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않는 부분이 있어 정확성이 떨어집니다. 특히 다른 전공에 대한 성적 통계에 대한 언급이 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원문과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원문과의 차이로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6002142127245664</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 소프트웨어공학부에 대한 자세한 통계가 포함되어 있지 않습니다. 다른 전공들에 대한 성적 통계만이 있습니다. 필요하신 정보를 찾기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 방문해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 점을 언급하고 있지만, "다른 모집단위의 데이터만 포함되어 있습니다"라는 부분은 원문에 명시되어 있지 않은 정보입니다. 따라서 일부 사실과 일치하지만, 추가된 정보로 인해 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "다른 모집단위의 데이터만 포함되어 있습니다"라는 문구는 원문에 없는 내용으로, 일관성이 부족합니다. 원문은 소프트웨어공학부에 대한 정보가 전혀 없다고 명확히 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 소프트웨어공학부 합격자 평균 성적에 대한 질문에 적절하게 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "해당 정보를 제공해 주시거나"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 추가된 정보로 인해 정확성이 떨어집니다. 원문은 단순히 정보가 없다고만 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.8109265233268831</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 특정 데이터가 없습니다. 다른 모집단위의 데이터만 포함되어 있습니다. 소프트웨어공학부와 관련된 최초 합격자 평균 성적을 알고 싶다면, 해당 정보를 제공해 주시거나 [https://ipsi.deu.ac.kr/main.do](https://ipsi. deu. ac. kr/main. do) 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록과 관련된 날짜와 내용이 추가되어 있어 원본 텍스트와 다소 차이가 있습니다. 또한, "개별 전화 통보"에 대한 정보는 원본에 없던 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용이 있어 일관성이 떨어집니다. 특히, 최초 합격자 등록과 관련된 정보는 원본에 명시되어 있지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있어 대체로 관련성이 높습니다. 그러나 추가된 정보가 원본과 다르기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 발표 일정이 잘 정리되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성이 떨어집니다. 특히, 추가된 등록 일정이 원본에 없던 내용입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 일관성에서 다소 부족함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보로 인해 의미가 약간 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.7650180683998066</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다:
+- **최초 합격자 발표 및 등록**: 
+  - 날짜: 2024. 02. 02.(금) 14:00
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **최초 합격자 등록**: 
+  - 날짜: 2024. 02. 07.(수) ~ 02. 13.(화)
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **충원 합격자 발표 및 등록**: 
+  - 1차 발표:
+    - 날짜: 2024. 02. 14.(수) 09:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 1차 등록:
+    - 날짜: 2024. 02. 14.(수) 09:00 ~ 16:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 2차 발표:
+    - 날짜: 2024. 02. 15.(목) 09:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 2차 등록:
+    - 날짜: 2024. 02. 15.(목) 09:00 ~ 16:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 3차 이후 발표 및 등록:
+    - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **개별 전화 통보**: 
+  - 날짜: 개별 전화 통보 시 안내
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 면접고사가 2024년 1월 20일(토)로 명시되어 있지만, 생성된 응답에서는 실기고사와 면접고사가 2024년 1월 16일(화)과 17일(수)로 잘못 언급되고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 면접고사 일정과 생성된 응답의 내용이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 정보인 면접고사 일정에 대한 정확한 답변을 제공하지 않기 때문에 관련성이 낮습니다. 실기고사에 대한 언급은 원본 텍스트와 관련이 없으며, 주제를 벗어난 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 실기고사와 면접고사에 대한 정보가 혼재되어 있어 일관된 주제를 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 면접고사 일정이 잘못 기재되어 있으며, 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 실기고사에 대한 언급은 원본 텍스트의 주제와 관련이 없기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4459984005708063</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)과 17일(수)에 실기고사를 보실 예정입니다. 각 학과별로 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.
+따라서, 면접고사는 2024년 1월 16일(화)과 17일(수)에 각 학과별로 대기실을 통해 입장하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 한의예과의 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보 제공이 원본의 내용을 해치지 않고 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.6215285436368754</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 없습니다. 만약 한의예과의 최저학력 기준을 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 자세한 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공되지만, 기본적인 사실은 변하지 않습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 잘 유지하고 있습니다. 추가적인 설명도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5669253410211935</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 정시모집군별로 수능 최저학력 기준을 설정하지 않았습니다. 각 학과와 모집단위 별로 수능 최저학력 기준이 없으므로, 모든 학생들은 수능 점수에 관계없이 지원 가능합니다.
+만약 특정한 정시모집군이나 학과에서 수능 최저학력 기준이 변경되었거나 설정된 경우는 해당 정보가 제공되지 않았습니다. 더 자세한 내용을 확인하시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 공식 웹사이트에서 최신 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정을 정확하게 반영하고 있습니다. 그러나 3차 이후 발표 일정에 대한 언급이 없어서 완전한 정보는 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 발표 일정에 대한 내용이 일치합니다. 다만, 3차 이후 발표 일정이 누락되어 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 충원합격자 발표 일정에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 1차 및 2차 발표 일정은 정확하지만, 3차 이후 발표 일정이 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 3차 이후 발표 일정의 누락으로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8316229065791363</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일(수)에 충원합격자 1차 발표가 이루어집니다. 이어서 2024년 2월 15일(목)에는 충원합격자 2차 발표도 있을 예정입니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않으며, 원본 텍스트에서 명시된 충원합격자 발표 일정에 대한 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고 있으며, 충원합격자 발표 일정에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 주제에 대한 직접적인 답변을 제공하지 않기 때문에 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4596034857083978</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표일에 대한 명시가 없습니다. 추가합격자 발표일은 일반적으로 정원 내 합격자 발표 이후에 이루어집니다. 정확한 일정을 확인하려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 내용과 상충하는 부분이 있습니다. 원본 텍스트는 추가 모집이 있을 것이라는 내용을 포함하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 추가 모집이 있을 것이라고 명시하고 있지만, 생성된 응답은 추가 모집에 대한 정보가 없다고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 놓치고 있습니다. 원본 텍스트의 내용에 대한 직접적인 언급이 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본 텍스트의 내용을 반영하지 않기 때문에 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 정확하게 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 원본 텍스트의 의도를 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.498297407001995</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 추가 모집에 대한 내용이 없습니다. 각 전형별 모집인원과 지원 자격 등은 위에서 나열되었습니다. 추가 모집이 있는지 확인하려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해보시는 것이 좋습니다.
+추가로, 입학사정관 제도와 서류평가 기준 등은 정기적으로 변경될 수 있으므로, 공식 홈페이지에서 가장 최신의 정보를 얻으시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 다른 전형에 대한 정보를 제공하고 있습니다. 지원 자격, 제출 서류, 면접 평가 등에서 사실과 다르거나 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트에서 언급된 모집단위, 모집인원, 지원 자격 등이 누락되거나 잘못된 정보로 대체되었습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 원본 텍스트와 관련이 적고, 주제에서 벗어난 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않고 독립적으로 나열되어 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 예를 들어, 지원 자격과 제출 서류에 대한 정보가 원본과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 관련성도 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 부정확하여 의미적으로 적절하지 않습니다. 원본 텍스트의 맥락과 맞지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6487890164609049</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학생이나 성인, 재직자를 대상으로 하는 특별한 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. **지원 자격**: 
+   - 산업체에서 근무 중인 사람 (국가나 지방자치단체를 포함)
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+   - 4대 보험 중 하나 이상 가입
+2. **전형 요소 반영 비율**:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+3. **제출 서류**:
+   - 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자는 각각의 요구 사항에 따라 학교생활기록부를 제출합니다.
+   - 재직자인 경우 고교 학교생활기록부와 4대 보험 가입 증빙서류 등을 제출해야 합니다.
+4. **면접 평가**:
+   - 개별 면접으로 진행
+   - 시간은 10분 이내
+   - 주요 질문 항목에는 지원 동기, 학업 계획, 학업 역량, 전공 적합성 등이 포함됩니다.
+5. **동점자 처리 기준**:
+   - 서류 평가 공동체역량 영역 성적 상위자 우선
+   - 면접 성적 상위자 우선
+6. **모집 단과대학 및 계열**:
+   - 미래융합대학 인문사회 계열 (라이프융합학부)
+   - 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 더 자세한 정보는 "https://ipsi. deu. ac. kr/main. do"를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 다른 전형의 지원 자격에 대한 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 정보를 제공합니다. 이로 인해 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전혀 다른 내용을 다루고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 품질 차원에서 매우 낮은 점수를 받았으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 맥락에 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 내용이 명확하게 전달되지만, 주제가 다르기 때문에 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6246824870117943</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격을 갖춘 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜(2024년 1월 16일)와 대기실 및 입실시간 안내를 확인할 수 있는 날짜(2024년 1월 12일 14:00 이후)를 정확하게 언급하고 있습니다. 그러나 실기고사 날짜에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 다소 불확실합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 대기실 및 입실시간 안내에 대한 정보를 포함하고 있지만, 실기고사 날짜에 대한 정보는 원본 텍스트에 명시되어 있지 않기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사와 관련된 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 실기고사 날짜에 대한 정보가 원본 텍스트와 연결되지 않아 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대기실 및 입실시간 안내에 대한 정확한 정보를 제공하지만, 실기고사 날짜에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 실기고사 날짜에 대한 정보가 원본 텍스트에 없다는 점에서 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지지만, 실기고사 날짜에 대한 정보가 추가되어 있어 약간의 맥락에서 벗어난 느낌이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 실기고사 날짜에 대한 정보가 원본 텍스트와 연결되지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.7968483282449706</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 실기고사가 있습니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사는 2024년 1월 16일(화)에 진행되며, 이 날짜와 시간에 입학안내 홈페이지를 통해 대기실 및 입실시간 안내를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 과목과 배점 비율에 대한 내용을 담고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 원본 텍스트와 관련이 없는 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3073351915114479</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 과목으로 구성되어 있습니다:
+1. **제자리 멀리뛰기**
+   - 배점 비율: 24%
+2. **메디신볼 던지기**
+   - 배점 비율: 23%
+3. **Z-런**
+   - 배점 비율: 23%
+이러한 실기고사는 체육학과에서 평가받습니다. 각각의 종목별로 성적을 받게 되며, 이 성적은 합격 여부와 입학 점수에 반영됩니다.
+더 자세한 정보나 준비 방법 등에 대해 궁금하시다면 추가 질문 부탁드립니다!</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 원문 내용을 완전히 반대하는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으나, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 주된 내용이므로, 관련성 점수는 중간 정도로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 점수가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 일관되지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실과 맞지 않는 내용을 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 크게 다르며, 잘못된 정보를 전달하고 있습니다. 따라서 의미 적합성 점수는 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 점수는 높지만, 내용의 정확성 문제로 인해 완전한 점수를 주지는 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6377740030549527</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 수 있습니다. 하지만 정확한 일정은 아직 공지되지 않았습니다. 최신 정보는 입학안내 홈페이지에서 확인해 보시기 바랍니다. 필요하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않다는 사실을 언급하고 있지만, "自主招生结果"라는 표현은 잘못된 정보입니다. 수시모집 결과와 관련된 정보가 없다는 점을 명확히 하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, "自主招生结果"라는 표현이 원본의 내용과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 용어 사용으로 인해 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 유창성 평가에 제한이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 못하고 있으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않는 부분이 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7034012349811869</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于2023学年警察行政学系的自主招生结果。根据您提供的内容，似乎主要包含了学校各专业的招生计划、录取标准以及其他相关信息，并没有包含具体的往年招生结果数据。
+如果您需要了解2023学年警察行政学系的具体招生结果，建议直接访问该大学的官方网站或联系学校的招生办公室获取最准确的信息。也可以参考“https://ipsi.deu.ac.kr/main.do”这个链接来获取更多信息。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 정반대의 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 정시모집에 대한 정보를 제공하지만, 원문에서 질문한 내용과는 관련이 적습니다. 수능 응시 여부에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 전혀 맞지 않으며, 맥락에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5268074871381532</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도부터 정시 모집에서 수능 응시를 하지 않아도 지원이 가능합니다. 예를 들어, "학생부종합(성인학습자전형)", "학생부종합(평생학습자전형)" 등에 지원할 수 있습니다. 그러나 특정 전형에서는 수능 점수가 필요하거나 수능을 통해 학생들의 학업 역량을 평가하는 경우도 있으므로, 각 전형의 자세한 조건을 확인하시기 바랍니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)를 방문해보시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났다면 정시 지원이 불가능하다고 주장하고 있습니다. 그러나 원본 텍스트에서는 고등학교 졸업 시기와 관계없이 정시 지원이 가능하다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 정시 지원이 가능하다고 하였으나, 생성된 응답에서는 불가능하다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 정시 지원에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 상반된 주장을 하고 있어 관련성이 떨어집니다. 그러나 여전히 정시 지원에 대한 질문에 답변하고 있다는 점에서 일부 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제 전환이 자연스럽지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 상반된 내용을 전달하고 있어 의미적으로 적절하지 않습니다. 그러나 정시 지원에 대한 질문에 대한 답변을 시도하고 있다는 점에서 일부 적절성을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않습니다. 그러나 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.585414506684813</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 기반으로 답변 드리겠습니다. 정시 모집은 일반적으로 고등학교 졸업 후 3년 이내의 학생을 대상으로 합니다. 따라서, 고등학교 졸업한지 10년이 지났다면 정시 지원이 가능하지 않을 것으로 보입니다.
+만약 평생학습자전형이나 성인학습자전형, 재직자전형 등 특별전형을 통해 지원할 수 있는 경우가 있습니다. 이러한 전형의 지원 자격과 서류 제출 내용은 위에서 제공된 정보를 참고하시면 도움이 될 것입니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트를 방문하여 확인해보시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8531097762419363</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+- **2024년 01월 02일 (화)**: 모집인원 확정 공고가 입학안내 홈페이지에서 이루어집니다.
+- **2024년 01월 03일 (수) ~ 2024년 01월 06일 (토)**: 원서접수가 진행되며, 마감시간은 각각의 일정에 따라 18시까지입니다. 접수는 인터넷을 통해 가능하며, 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다.
+- **2024년 01월 03일 (수) ~ 2024년 01월 12일 (금)**: 서류제출이 가능하며, 마감시간은 각각의 일정에 따라 17시까지 도착해야 합니다. 서류 제출대상자는 입학안내 홈페이지에서 확인할 수 있으며, 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다.
+- **2024년 01월 16일 (화)**: &lt;가&gt;군 실기고사와 &lt;나&gt;군 실기고사가 진행되며, 대기실 및 입실시간 안내는 2024년 01월 12일 (금) 14시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+- **2024년 02월 02일 (금) 14:00**: 합격자 발표 및 등록금 납부가 이루어집니다. 이때는 최초 합격자 발표이며, 홈페이지에서 개별 조회가 가능합니다. 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+- **2024년 02월 07일 (수) ~ 02월 13일 (화)**: 이 기간 동안 합격자 발표 및 등록금 납부가 이루어집니다. 홈페이지에서 개별 조회가 가능하며, 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+- **2024년 02월 14일 (수) 09:00**: 충원 합격자 발표 및 등록이 이루어집니다. 이때는 1차 발표이며, 홈페이지에서 개별 조회가 가능합니다. 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+- **2024년 02월 15일 (목) 09:00 ~ 16:00**: 충원 합격자 등록이 이루어집니다. 이때는 1차 등록이며, 홈페이지에서 개별 조회가 가능합니다.
+- **2024년 02월 15일 (목) 19:00 ~ 2024년 02월 20일 (화) 18시까지**: 충원 합격자 발표 및 등록이 이루어집니다. 이때는 3차 이후이며, 홈페이지에서 개별 조회가 가능합니다.
+- **개별 전화 통보 시 안내**: 충원 합격자 3차 이후의 등록은 개별 전화 통보를 통해 이루어지며, 해당 일정에 따라 안내가 제공됩니다.
+위와 같은 일정을 참고하여 정시 모집에 참여하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8918682293842422</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접수사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과 (2024년 1월 16일 화)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 금 14시 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과 (2024년 1월 17일 수)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 금 14시 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+7. **합격자 등록**:
+   - 날짜: 2024년 2월 7일 (수) ~ 2월 13일 (화)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+8. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 9시
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 9시 ~ 16시
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 9시
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 9시 ~ 16시
+9. **충원 합격자 발표 및 등록**:
+   - 3차 이후 충원 합격자 발표: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+   - 3차 이후 충원 합격자 등록: 개별 전화 통보 시 안내
+이 일정은 동의대학교 정시 모집에 대한 주요 내용을 포함하고 있으며, 각 단계별로 필요한 서류 제출 및 입학 절차를 명확히 설명하였습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 부정확하게 전달하고 있습니다. 일부 특별전형에서 수능 미응시자가 지원할 수 있다고 언급했지만, 이는 명확한 정보가 아니며, 원문에서 수능 성적이 요구된다고 명시되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 일부 특별전형에서 지원 가능성을 제시하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 명시된 수능 미응시자의 지원 불가능성을 간과하고 있습니다. 그러나 특별전형에 대한 언급은 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 명확하지 않아 논리적 흐름이 다소 부족합니다. 수능 미응시자에 대한 정보가 혼란스럽게 제시되고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 없다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 어긋나는 부분이 있으며, 수능 미응시자에 대한 정보가 부정확하게 전달되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7467732088932174</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교에서 수능 미응시자도 지원이 가능한 정시 모집 전형에 대한 명확한 정보가 없습니다. 하지만, 일부 특별전형에서는 수능 미응시자도 지원할 수 있는 경우가 있습니다.
+특히, "나군 학생부종합(평생학습자전형),  나군 학생부종합(성인학습자(정원내)전형),  나군 학생부종합(성인학습자(정원외)전형),  나군 학생부종합(재직자전형),  나군 학생부종합(조기취업형계약학과전형)" 등은 일반적으로 수능 점수가 아닌 다른 평가 기준을 사용하므로, 수능 미응시자도 지원이 가능할 수 있습니다.
+만약 더 자세한 정보를 원하시면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나 동의대학교 입학처에 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격 정보가 제공되지 않았다고 언급하고 있지만, 원문에서는 전년도 충원 합격이 36명까지 이루어졌다고 명확히 언급하고 있습니다. 따라서, 응답이 일부 사실을 누락하고 있어 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 전년도 데이터만으로 판단하기 어렵다고 하여 모호한 표현을 사용하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 관련이 있지만, 전년도 충원 합격에 대한 구체적인 수치를 언급하지 않아 약간의 관련성이 떨어집니다. 그러나 웹사이트 방문을 권장하는 부분은 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약간 부족하여 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공하는 구체적인 사실을 누락하고 있으며, 전년도 충원 합격 수치에 대한 언급이 없습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 다소 낮습니다. 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 모호하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.6420112639280031</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024년 데이터를 바탕으로 전자공학과의 충원 합격 정보가 제공되지 않았습니다. 따라서 전년도의 데이터만을 기준으로 판단하기는 어렵습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시거나, 해당 대학에 직접 문의하시면 정확한 답변을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트의 사실을 완전히 부정하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명확히 제시하고 있지만, 생성된 응답은 전화번호가 포함되어 있지 않다고 주장합니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 정보인 전화번호를 무시하고, 웹사이트를 방문하라는 일반적인 조언만 제공합니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조는 일관되지만, 원본 텍스트와의 관계가 명확하지 않아 일관성이 떨어집니다. 전화번호에 대한 언급이 없기 때문에 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않다고 잘못된 주장을 하고 있습니다. 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 전화번호에 대한 정보가 없다는 주장은 부적절합니다. 그러나 웹사이트를 언급한 점은 어느 정도 적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6921110199393681</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 더 자세한 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격 사실이 확인된다고 주장하지만, 원문에서는 전화 연락이 두절되면 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생하므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 합격 사실이 확인된다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 전화 통화의 중요성에 대한 언급이 부족합니다. 그러나 여전히 관련된 정보가 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 특히, 전화 통화가 되지 않는 경우에 대한 설명이 원문과의 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 전화 통화가 되지 않는 경우의 처리 방식에 대한 정확성이 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문과의 일치성이 떨어져 다소 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 차이로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5917417547865609</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격 사실이 확인됩니다. 그러나 이때는 학교에서 추가적인 안내를 제공하기 위해 홈페이지를 통해 개별적으로 조회할 수 있게 됩니다. 또한 고지서도 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행으로 진행합니다.
+따라서 전화 통화가 되지 않더라도 합격자 발표와 관련된 정보를 얻을 수 있는 방법들이 마련되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류를 잘 반영하고 있으며, 6년 과정과 12년 과정에 대한 정보를 정확하게 나열하고 있습니다. 그러나 "유형에 따라 다릅니다"라는 문구는 다소 모호하게 느껴질 수 있으며, 원본 텍스트의 모든 세부 사항을 포함하지는 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류 목록을 제시하고 있습니다. 그러나 "유형에 따라 다릅니다"라는 표현은 원본 텍스트의 명확한 서류 목록과 약간의 불일치를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 잘 구성된 문장으로 이루어져 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 모든 세부 사항을 포함하지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "유형에 따라 다릅니다"라는 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7216763251303171</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 주요 서류들은 다음과 같습니다:
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이외에도 추가로 제출해야 할 서류가 있을 수 있으므로, 정확한 요구사항은 해당 대학의 공식 웹사이트를 확인하시거나 문의하시는 것이 좋습니다. 더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 필요한 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 "이러한 서류들은 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 서류 목록과 일치하지만, 추가된 발급처 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다. 원본 텍스트에 없는 정보를 포함함으로써 일관성이 약간 손상되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 정확하게 다루고 있습니다. 추가된 발급처 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록과 발급처 정보가 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 약해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 발급처에 대한 정보는 원본에 포함되어 있지 않으므로 정확성이 약간 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 발급처 정보는 원본의 의미와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 독자에게는 추가된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8251531258174756</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 모호한 답변을 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 기회균등 전형이 선발되지 않는다는 정보를 부정하는 듯한 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 시도하고 있으나, 원본 텍스트의 핵심 정보인 기회균등 전형의 부재에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 흐름은 어느 정도 일관성이 있으나, 원본 텍스트의 핵심 내용을 반영하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 응답은 원본 텍스트의 사실과 상충하며, 기회균등 전형이 존재하지 않는다는 사실을 정확히 전달하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 모두 부족함을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 어느 정도 적절하나, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 명확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6072991619813558</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 모집에서 저소득 기회균등 전형이 선발되는지에 대한 명확한 답변을 드릴 수 없습니다. 해당 대학의 정시 모집 전형 내역이나 공식 홈페이지를 참조해 주시면 더 정확한 답변을 드릴 수 있을 것 같습니다. 필요하시다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참고하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에서 사탐 2 과목의 평균산출에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다"라는 내용을 무시하고 절사 적용 여부를 단정짓고 있습니다. 이는 사실과 다르므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사가 적용되지 않는다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 최저등급과 사탐 과목에 대한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 정보인 절사 여부에 대한 불확실성을 간과하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 반복적일 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 핵심 내용을 무시하고 있어 일관된 흐름이 부족합니다. 절사 여부에 대한 정보가 없다는 점을 간과하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 절사가 적용되지 않는다고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 무시하고 잘못된 결론을 내리고 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트의 핵심 내용을 반영하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.5833275045296787</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 그대로 2.5 등급으로 처리합니다. 수능 최저등급에서 사탐(사회) 2 과목의 평균산출은 2.5 등급이면 2.5 등급으로 반영됩니다. 절사(절단점 아래로 내려가지 않음)는 적용되지 않습니다.
+만약에 사탐 2 과목 중 하나가 3등급이고 다른 하나가 2등급이라면 평균은 (3 + 2) / 2 = 2.5 등급이 됩니다. 이 경우에도 2.5 등급으로 처리됩니다.
+따라서, 2.5 등급이 나오더라도 그대로 2.5 등급으로 보시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 날짜에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8579504748881933</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일 (수) 오전 9시에 진행됩니다.
+2. **2차 발표**: 2024년 2월 15일 (목) 오전 9시에 진행됩니다.
+3. **3차 이후 발표**: 이는 개별 전화 통보를 통해 이루어지며, 날짜는 2024년 2월 15일 오후 7시부터 2024년 2월 20일 오후 6시까지입니다.
+이와 같이 총 3차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 수능 성적 산출 방법에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 점수와 비교할 때 정확한 수치를 제공하지 않으며, 4.6점에 대한 해석이 부족하다. 따라서 사실성 점수는 3으로 평가된다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 수능 성적 산출 방법에 대한 추가 정보를 제공하면서 원본 텍스트의 평균 점수와의 관계를 명확히 하지 않는다. 이로 인해 일관성 점수는 3으로 평가된다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 수능 성적과 관련된 정보를 제공하고 있으며, 질문의 주제와 관련이 있다. 그러나 원본 텍스트의 주요 포인트를 완전히 반영하지는 않으므로 관련성 점수는 4로 평가된다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 유창성 점수는 4로 평가된다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 서로 연결되어 있다. 그러나 원본 텍스트와의 연결이 다소 약해 보이므로 일관성 점수는 4로 평가된다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 정보를 제공하지만, 원본 텍스트의 평균 점수와의 비교가 부족하여 정확성 점수는 3으로 평가된다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성, 일관성, 정확성에서 부족함이 있어 다차원 품질 점수는 3으로 평가된다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항에서 다소 부족함이 있어 의미 적합성 점수는 4로 평가된다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 이해 가능성 점수는 4로 평가된다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5850740227002368</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집군 변경 사항을 보면, e비즈니스학과는 "가군"에 속해 있습니다. 가군의 수능 성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+영어 등급 점수를 확인해야 합니다. 제공된 정보에 따르면, 4등급의 점수는 115입니다.
+따라서 e비즈니스학과의 수능 성적은 다음과 같습니다:
+- 국어 + 수학 + 115 + 탐구
+만약 이 학생이 국어와 수학에서 각각 표준점수가 100점을 받았고, 탐구 영역에서도 표준점수를 받았다면, 총 점수는 다음과 같습니다:
+- 100 (국어) + 100 (수학) + 115 (영어 등급점수) + 100 (탐구) = 415
+이 학생의 수능 성적이 4.6이라면, 표준점수가 더 높아야 합니다. 제공된 정보만으로는 정확한 점수를 알 수 없으므로, 실제 수능 성적을 확인해야 합니다.
+또한, 정시모집군 변경 사항에 따라 e비즈니스학과가 "가군"에 속해 있다는 점을 기억해야 합니다. 따라서, e비즈니스학과의 정시 전형으로 추가 합격 가능성을 판단하기 위해서는 실제 수능 성적을 확인하고, 해당 모집단위의 최저 기준 점수를 참조해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 확인하시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급에 대한 정보를 제공하지 않고, 중어중국학과의 데이터를 기반으로 답변하고 있습니다. 이는 원본 텍스트의 핵심 정보를 무시하고 다른 학과의 정보를 사용하여 잘못된 결론을 도출하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 중어중국학과의 데이터를 사용하여 e비즈니스학과에 대한 결론을 내리고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 질문에 대해 중어중국학과의 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제와는 다소 관련성이 떨어집니다. 그러나 여전히 동의대학교에 대한 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 중어중국학과의 정보가 포함되어 있어 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 중어중국학과의 정보를 포함하고 있어 논리적인 흐름이 다소 깨지지만, 여전히 일관된 구조를 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 정확한 정보를 제공하지 않으며, 중어중국학과의 데이터를 사용하여 잘못된 결론을 도출하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 정보의 정확성과 일관성이 떨어집니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 중어중국학과의 정보를 사용하여 의미가 다소 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 중어중국학과의 정보가 포함되어 있어 혼란을 줄 수 있습니다. 그러나 문장은 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7763705345754904</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과의 수능 성적 평균 및 표준 편차를 확인해보겠습니다. 하지만, e비즈니스학과에 대한 정확한 정보가 제공되지 않았기 때문에, e비즈니스학과와 가장 유사한 학과인 중어중국학과의 데이터를 기반으로 답변하겠습니다.
+중어중국학과의 경우:
+- 수능 4개 영역 등급 평균: 5.21
+- 수능 4개 영역 등급 표준 편차: 0.33
+이 정보를 바탕으로, 정시 등급 5.3은 평균보다 약간 높은 점수입니다. 이는 경쟁률과 충원 합격 인원을 고려할 때 최초 합격 가능성에 긍정적인 요인일 수 있습니다.
+하지만, 최종 결정에는 여러 요인이 포함되므로, 정확한 정보를 얻기 위해서는 동의대학교 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 e비즈니스학과의 모집 인원, 지원 인원, 경쟁률 등을 확인해보시는 것이 좋습니다.
+또한, 학교 측에서 제공하는 최신 정보를 참고하시면 더 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보가 부족하며, 원본 텍스트에서 제공된 구체적인 데이터(충원합격 31번까지)와 관련된 내용을 명확히 반영하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 예비 38번의 합격 가능성에 대한 결론을 내리기 어렵다고 언급하고 있지만, 원본 텍스트에서는 명확히 가능성이 낮다고 언급하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 그러나 여전히 관련성이 높다고 평가할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 다소 부족합니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 예비 38번의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 이로 인해 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 특히 부족합니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다소 어긋나는 부분이 있어 중간 정도의 점수를 받습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.4505862357817126</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 이정도의 점수로는 현재 제공된 정보만으로는 확실한 결론을 내리기 어렵습니다. 전형별, 모집단위별 수능 성적 평균과 표준편차를 고려해야 하며, 지원자의 개인적인 상황(예: 학업태도, 활동 등)도 중요한 요소입니다.
+특히, "나군"의 경우, 학생부 종합전형에서 서류평가와 면접 평가가 큰 비중을 차지하기 때문에, 단순 수능 점수만으로는 결정이 어렵습니다. 
+추천되는 조치:
+1. 해당 모집단위의 2024학년도 최초합격자 성적 분석을 참조하세요.
+2. 나군 학생부종합전형 서류평가 영역별 배점을 확인하고, 자신의 강점과 약점을 파악하세요.
+3. 입학사정관이 평가하는 공동체역량, 학업역량, 전공적합성 등 각 영역에서의 성적을 고려하세요.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급을 4.65로 언급하고 있지만, 원본 텍스트에서는 영어 등급 평균이 2.34로 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 수능 4개 영역 등급 평균이 3.37이라는 정보도 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 평균 영어 등급에 대한 정보가 상충합니다. 원본 텍스트의 내용과 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 간호학과의 합격 가능성에 대한 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 데이터와는 일치하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 평균 영어 등급에 대한 정보가 잘못되었습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하지만, 원본 텍스트의 사실과 일치하지 않기 때문에 의미적으로 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.713509131633592</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44의 영어 등급 점수로 동의대학교 간호학과에 합격할 확률은 매우 낮습니다.
+간호학과는 일반적으로 높은 경쟁률을 보입니다. 예를 들어, '2024학년도 모집단위'에서 간호학과의 경우 평균 영어 등급이 4.65였고, 표준 편차가 0.21이었습니다. 이는 동의대학교 간호학과에 지원하는 학생들의 영어 점수가 상대적으로 높은 것을 의미합니다.
+당신의 경우 3.44의 등급으로 지원하면 매우 낮은 확률로 합격할 수 있습니다. 그러나 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 결과를 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화 문의 등을 통해 자세한 정보를 얻는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 정시 등급에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "2.52라는 점수는 영어 등급 점수로 보이는데"라는 부분은 다소 모호하게 해석될 수 있습니다. 영어 등급 점수로 한정짓기보다는 전체 정시 등급으로 보는 것이 더 적절할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률에 대한 언급이 추가되어 있어 원본의 맥락과는 약간의 차이가 있습니다. 경쟁률에 대한 정보는 유용하지만, 원본의 주제와는 다소 벗어난 느낌을 줍니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 점수와 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 경쟁률에 대한 언급이 원본의 주제와 다소 동떨어져 있어 완전한 일관성은 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 그러나 경쟁률에 대한 정보는 원본에 포함되어 있지 않으므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 보여줍니다. 그러나 일부 일관성 문제와 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "영어 등급 점수로 보이는데"라는 표현이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 명확성은 부족할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6801361574057457</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급 점수로 보이는데, 동의대학교 간호학과의 경우 지원 인원이 145명이고 모집인원은 22명으로 경쟁률이 매우 높습니다 (6.59). 
+간호학과의 평균 영어 등급 점수는 2.34이며, 표준 편차는 0.69입니다. 이 데이터를 바탕으로 볼 때, 2.52라는 점수는 평균보다 약간 높은 수치로 보이지만, 표준 편차를 고려하면 여전히 상당한 경쟁력을 가지고 있는 지원자들 사이에서 우위에 있을 확률은 낮습니다.
+따라서 2.52라는 점수만으로는 동의대학교 간호학과 최종 합격이 어려울 것으로 예상됩니다. 그러나 이는 단순히 점수만을 바탕으로 한 추정이며, 실제 입시 결과는 다양한 요인에 의해 결정되므로 정확한 판단은 해당 대학의 입시 결과를 확인하는 것이 가장 좋습니다.
+더 자세한 정보나 추가 지원 전략이 필요하시다면 https://ipsi.deu.ac.kr/main.do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 3.7의 정시 성적이 평균 등급보다 낮다는 점을 언급하고 있습니다. 그러나 "합격 가능성이 낮다"는 결론은 다소 일반화된 표현으로, 구체적인 수치나 조건을 제시하지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 여러 요소를 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급과의 관계를 명확히 연결하지 못하고 있습니다. 따라서 일관성이 다소 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 영향을 미치는 다양한 요소를 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "정시 성적로"라는 표현에서 약간의 오타가 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 다소 약해 보입니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 정보를 제공하며, 원본 텍스트의 내용을 대체로 정확하게 반영하고 있습니다. 그러나 특정 수치에 대한 명확한 언급이 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 다소 모호함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완벽한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6704864646685049</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적로 간호학과에 합격할 수 있는지는 여러 요소가 영향을 미칩니다. 간호학과는 일반적으로 높은 경쟁률을 가지고 있으며, 학교마다 요구하는 최저 점수도 다릅니다. 따라서 정확한 답변을 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. **학교별 최저 합격 점수**: 각 대학에서 간호학과에 대한 최저 합격 점수를 확인하세요.
+2. **전형 별 경쟁률**: 간호학과의 정시 전형별 경쟁률을 확인하세요.
+3. **학생부 성적 및 활동**: 학생부 교과성적, 진로활동 등이 중요합니다. 3.7의 정시 성적이 좋은 점수라면, 이를 극대화하는 것이 필요합니다.
+만약 위 정보를 모두 확인하였다면, 간호학과에 합격할 가능성을 판단해 보세요. 만약 불확실하다면, 해당 대학의 입학처나 학부모와 상담을 받는 것을 추천드립니다. 또한, 다른 전형(예: 특기자전형, 사회통합전형 등)으로도 지원을 고려해보시는 것도 좋습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제시된 "정시 등급이 2.58이라면 합격 가능성이 높습니다"라는 주장을 반영하지 않고 있습니다. 대신, 성적이 낮다고 언급하며 합격 가능성을 낮게 평가하고 있습니다. 이로 인해 사실성과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 간호학과의 평균 등급과 관련된 주장을 상반되게 해석하고 있습니다. 원본 텍스트는 2.58의 성적이 평균보다 높다고 언급하는 반면, 생성된 응답은 이를 낮게 평가하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 지원 자격과 경쟁률에 대한 정보를 제공하며, 질문에 대한 관련성을 유지하고 있습니다. 그러나 원본 텍스트의 핵심 주제인 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 관계에서 약간의 비일관성이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주장을 왜곡하여 성적에 대한 평가가 부정확합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 특히 합격 가능성에 대한 평가가 원본과 상충합니다. 이로 인해 의미 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 내용이 혼란스러울 수 있어 완전한 이해 가능성은 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.701226345548115</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에 대한 지원 자격을 확인해보겠습니다.
+간호학과는 다음과 같은 조건을 가지고 있습니다:
+- 모집군: 나군 (학생부종합)
+- 지원 자격: 일반고, 특수목적고(과학고, 국제고, 외국어고), 특성화고(특성(직업)), 영재학교, 기타 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 지원 가능
+또한, 간호학과의 경쟁률이 6.59로 매우 높습니다. 이는 합격을 위한 성적이 상대적으로 높아야 함을 의미합니다.
+2024학년도 동의대학교 간호학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 353.48입니다. 이는 지원 자격을 충족하는 것으로 보이지만, 정확한 성적을 가지고 있는지 확인해야 합니다.
+당신의 성적이 2.58이라면, 평균 점수와 비교해보니 상대적으로 낮은 편으로 보입니다. 그러나 정시 모집에서는 학생부 종합평가가 중요한 요소이므로, 학생부 성적과 면접 등 다른 평가 항목에서 우수한 성적을 받는다면 합격 가능성은 있습니다.
+결론적으로, 2.58의 성적만으로는 합격하기 어려울 것으로 보입니다. 그러나 학생부 종합평가를 잘 준비한다면 합격 가능성은 열려있습니다. 자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 확인하시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 불확실성을 강조하고 있지만, 원본 텍스트에서 명시된 "예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다"는 사실을 명확히 반영하지 않고 있다. 따라서 사실성 점수는 3으로 평가된다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 예비 7번의 합격 가능성에 대한 원본의 명확한 진술과는 일치하지 않는다. 이로 인해 일관성 점수는 3으로 평가된다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지 않기 때문에 관련성 점수는 4로 평가된다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 약간의 어색한 표현이 있을 수 있어 유창성 점수는 4로 평가된다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽다. 그러나 원본 텍스트와의 연결이 약간 부족하여 일관성 점수는 4로 평가된다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않는다. 따라서 정확성 점수는 3으로 평가된다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있다. 따라서 다차원 품질 점수는 3으로 평가된다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공하고 있다. 그러나 원본 텍스트의 특정 사실을 간과하고 있어 의미 적합성 점수는 4로 평가된다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있다. 그러나 일부 정보가 모호하게 표현되어 있어 이해 가능성 점수는 4로 평가된다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6216135905401924</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보만으로는 정확한 결론을 내리기 어렵습니다. 게임공학과의 모집 인원이 표시되어 있지 않아 확정적인 답변을 드릴 수 없습니다.
+게임공학과에 대한 정원 내 모집 인원을 확인해 보세요. 만약 정원 내 모집 인원이 아직 남아 있다면, 붙을 가능성이 있습니다. 반대로 이미 정원이 채워져 있다면 붙지 않을 것입니다.
+더 자세한 정보를 얻기 위해서는 입학사정관이나 대학 홈페이지의 공식 안내를 참고하시거나 직접 문의하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 정보와 합격 가능성에 대한 일반적인 조언을 제공하지만, 원본 텍스트에서 제시된 구체적인 평균 성적(영어 등급 평균 3.25, 4개 영역 등급 평균 4.78)에 대한 언급이 부족하다. 따라서 일부 사실이 누락되었다고 평가할 수 있다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있으며, 수능 성적 기준에 대한 설명이 추가되어 있다. 그러나 원본 텍스트의 구체적인 수치에 대한 언급이 없기 때문에 완전한 일관성은 없다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 게임공학과에 지원하기 위한 절차와 수능 성적 기준에 대한 정보를 포함하고 있어 매우 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있다. 그러나 일부 정보가 추가되어 다소 복잡해질 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 기준에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교했을 때 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 일관성, 유창성에서 좋은 점수를 받았다. 그러나 사실성과 정확성에서 다소 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항이 누락되어 있어 완전한 적합성은 없다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6958582006881303</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 수능 영어 등급을 의미하는 것 같습니다. 하지만 동의대학교 게임공학과에 대한 정확한 모집단위와 전형명, 그리고 해당 전형의 수능 성적 기준이 필요합니다.
+현재 제공된 정보만으로는 특정 전형의 합격 가능성을 판단하기 어렵습니다. 게임공학과에 지원하려면 다음과 같은 절차를 따르시기 바랍니다:
+1. **모집단위와 전형명 확인**: 동의대학교 게임공학과에 대한 정확한 모집단위와 전형명을 확인하세요.
+2. **수능 성적 기준 확인**: 해당 모집단위와 전형명에 따른 수능 성적 기준을 확인하세요. 이 정보는 대학 홈페이지나 입학처에서 확인할 수 있습니다.
+3. **합격 가능성을 판단**: 자신의 수능 점수가 합격 기준보다 높다면 추가 합격이 가능할 것입니다. 하지만 정확한 판단은 해당 모집단위와 전형명에 따른 수능 성적 기준을 바탕으로 해야 합니다.
+만약 자세한 정보를 얻기 어렵다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 제공된 정보에서 확인할 수 있는 것은 다음과 같습니다:
+- **가군(일반학생전형)**: 이 경우 수능 성적 기준은 "국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수"입니다.
+- **나군(일반학생전형)**: 이 경우 수능 성적 기준은 "국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수" 또는 "국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)"입니다.
+따라서, 게임공학과에 지원하려면 해당 모집단위와 전형명에 따른 수능 성적 기준을 확인하시고, 자신의 점수가 합격 기준보다 높다면 추가 합격이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집인원이나 전형 요소 반영 비율에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서 제공된 정보는 정시 등급이 3.75일 경우 합격 가능성이 높다는 점을 강조하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경영정보학과의 합격 가능성에 대한 긍정적인 언급이 누락되어 있습니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 그에 대한 확신을 주지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 질문에 대한 답변을 제공하고 있으며, 관련된 추가 정보를 요청하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 명확한 언급이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 원본 텍스트의 핵심 메시지를 충분히 전달하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 반응하고 있으며, 관련된 질문에 대한 답변을 제공하고 있습니다. 그러나 원본의 핵심 메시지와의 연결이 약해 보입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5866357070988438</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집인원이나 전형 요소 반영 비율 등에 대한 자세한 내용이 포함되어 있지 않기 때문에, 정확한 답변을 드리기 어렵습니다. 
+경영정보학과가 가군 수능(일반학생전형)으로 모집되는지, 또는 다른 전형으로 모집되는지를 확인해야 합니다. 또한 해당 학과의 정시 모집인원이 얼마나 되는지, 그리고 전형요소 반영 비율 등에 대한 정보도 필요합니다.
+만약 경영정보학과가 가군 수능(일반학생전형)으로 모집된다면, 동점자 처리 기준을 참고해야 합니다. 현재 제공된 정보에서는 동점자 처리 기준이 명시되어 있지 않으므로, 해당 학과의 동점자 처리 기준을 확인해 보시기 바랍니다.
+추가로 필요한 정보를 바탕으로 답변 드릴 수 있도록 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 제시하고 있습니다. 원본 텍스트의 구체적인 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)를 반영하지 않아 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 경영정보학과의 성적 기준에 대한 구체적인 정보를 제공하지 않으므로 일관성이 떨어집니다. 원본 텍스트의 결론과는 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 구체적인 정보와는 거리가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제를 잘 전달하고 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 일반적인 조언을 제공하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균 이하입니다. 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 일반적인 조언을 제공합니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 원본 텍스트와의 연결이 약해져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.7037483075826119</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 성적 기준을 확인하지 못했습니다. 경영정보학과의 정시 모집에 대한 자세한 성적 기준은 동의대학교의 공식 웹사이트를 참조하시거나, 입학처와 직접 문의해보시는 것이 가장 정확할 것입니다.
+[참고로] 일반적으로 수능 성적만으로는 특정 학과의 정시 모집에 최초등록이 가능하지 않을 수도 있습니다. 학교별로는 다른 기준을 두고 있을 수 있으며, 경영정보학과의 경우에도 추가적인 요건이 있을 수 있습니다.
+자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트를 방문하여 확인하시거나, 동의대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 "정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적"이라는 부분과 모순되는 내용을 포함하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 정시 성적이 5.33인 경우 합격 가능성에 대한 결론이 원본 텍스트의 내용과 일치하지 않습니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 경영정보학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 어색할 수 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 정시 성적에 대한 해석이 원본과 다르게 나타나 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 사실성과 일관성에서의 문제로 인해 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 내용에서 약간의 모호함이 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6897334168134913</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적이 5.33인 경우 합격이 가능한지 확정적으로 답변하기 어렵습니다. 
+동의대학교 경영정보학과 일반학생전형의 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이에 따라, 정시 성적이 5.33인 경우, 해당 점수가 위의 방법으로 변환되어 평균을 넘는지 확인해야 합니다.
+다만, 제공된 데이터에서 동의대학교 경영정보학과 일반학생전형의 수능 4개 영역 등급의 평균이 5.25이고 표준 편차가 0.35라는 점을 고려하면, 정시 성적이 5.33인 경우 평균보다 약간 높은 점수를 받았다는 것을 의미합니다.
+따라서, 이 정도의 성적이라면 합격 가능성은 있으나, 최종 합격 여부는 해당 전형의 경쟁률과 지원자의 전체 성적 분포에 따라 결정됩니다. 
+더 정확한 판단을 위해서는 동의대학교의 공식 홈페이지 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 성적 평균에 대한 정보를 제공하지 않고, 대신 다른 모집단위의 성적을 언급하며 불확실성을 강조하고 있습니다. 이는 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있으며, 특히 바이오응용공학부에 대한 구체적인 성적 정보를 제공하지 않고 있습니다. 그러나 원본 텍스트의 내용을 완전히 무시하지는 않으므로 중간 점수를 부여합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보인 바이오응용공학부의 성적 평균에 대한 언급이 부족합니다. 그럼에도 불구하고 관련된 정보를 제공하고 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 각 문장이 서로 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어지므로 완벽한 점수는 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 바이오응용공학부에 대한 성적 평균과 관련된 정보가 부족합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이며, 일부는 잘 수행되었지만 원본 텍스트의 핵심 정보를 놓치고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 적절한 정보를 제공하려고 합니다. 그러나 원본 텍스트의 구체적인 내용을 반영하지 않기 때문에 완벽한 점수는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7494671471386264</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 동의대학교의 바이오응용공학부에 대한 최초합격자들의 성적 평균과 표준편차를 확인해야 합니다. 
+현재 데이터에는 인문사회과학대학, 상경대학, 의료·보건·생활대학, 공과대학, ICT융합공과대학 등 여러 모집단위의 성적이 포함되어 있습니다. 바이오응용공학부에 대한 특정 정보가 없습니다.
+따라서, 동의대학교의 정시 합격자들의 성적 분포와 바이오응용공학부의 최초합격자들의 성적을 확인해야 합니다. 이를 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나, 동의대학교 입학처에 직접 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다.
+만약 바이오응용공학부의 최초합격자들의 성적 평균과 표준편차가 제공된 성적 3.33보다 낮다면, 가능성이 있습니다. 반대로 더 높다면, 불가능할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 제공하고 있으며, 4등급의 성적에 대한 합격 가능성을 언급하고 있습니다. 그러나, 방사선학과의 성적 평균 및 편차에 대한 구체적인 정보가 부족하다는 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 방사선학과에 지원하기 위한 여러 요인을 고려하고 있지만, 원본 텍스트에서 제시된 평균 등급과의 직접적인 비교가 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 방사선학과에 지원하기 위한 조건과 고려해야 할 사항들을 잘 설명하고 있어 원본 텍스트와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 방사선학과에 대한 정보와 지원 조건을 정확하게 설명하고 있지만, 특정 전형명에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 방사선학과 지원에 대한 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6474439632292018</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4등급의 성적을 가지고 방사선학과에 지원하려는 경우, 주요 요인들을 고려해보겠습니다.
+1. **방사선학과 모집단위**: 방사선학과는 특정 전형명(예를 들어 '가군')에서 모집이 이루어질 수 있습니다. 따라서, 먼저 해당 학과가 어떤 전형명으로 모집되는지 확인해야 합니다.
+2. **수능 성적 산출방법**: 일반학생전형의 경우, 방사선학과에 지원하려면 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수를 합산해야 합니다.
+3. **성적 평균 및 편차**: 현재 제공된 데이터에서 특정 전형명(예: 가군)의 방사선학과 모집단위에 대한 성적 평균 및 편차 정보가 없습니다. 이 정보는 해당 학과와 전형명을 확인한 후에 얻을 수 있습니다.
+4. **경쟁률**: 4등급의 성적은 평균적으로 중간 경쟁력을 가집니다. 그러나 방사선학과의 경우 특정 전형명에서 모집이 이루어질 수 있으므로, 해당 전형명의 경쟁률을 확인해야 합니다.
+5. **추천사항**:
+   - **전형명 및 모집단위 확인**: 방사선학과가 어떤 전형명으로 모집되는지 확인하세요.
+   - **성적 평균 및 편차 확인**: 해당 학과와 전형명의 성적 평균 및 편차를 확인하여, 자신의 성적이 평균보다 높은지 낮은지를 판단하세요.
+   - **경쟁률 확인**: 해당 전형명의 경쟁률을 확인하여, 자신의 성적이 경쟁력을 가지는지 판단하세요.
+위와 같은 절차를 통해 방사선학과에 지원할 수 있는 가능성을 파악하실 수 있습니다. 만약 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 합격 기준이 3.0 이상이라고 주장하지만, 원본 텍스트에서는 2.66이 평균보다 높다고 언급하고 있어 사실과 상충합니다. 따라서, 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 방사선학과의 합격 가능성에 대한 결론이 서로 모순됩니다. 원본 텍스트는 2.66이 평균보다 높다고 하지만, 생성된 응답은 불합격 가능성을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 2.66이 평균보다 높다는 점을 무시하고 불합격 가능성을 강조하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.638844710329032</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수는 방사선학과의 합격 기준을 넘지 못한 것으로 보입니다. 일반적으로 방사선학과의 합격 기준 점수는 3.0 이상이므로, 2.66은 불합격 영역에 속합니다.
+하지만 정시 모집에서 합격 여부는 단순히 수능 점수뿐만 아니라 서류 평가와 면접 결과도 고려됩니다. 따라서 다음과 같은 사항들을 확인해 보세요:
+1. **서류 평가**: 지원자의 학교생활기록부, 교과 성적 등이 어떻게 평가되었는지 확인하세요.
+2. **면접 평가**: 지원자가 면접에서 어떤 점수를 받았는지 확인하세요.
+특히 서류와 면접의 결과가 합격 기준을 충족시키면, 2.66이라는 수능 점수에도 불구하고 합격할 가능성은 있습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 농어촌 전형에 대한 합격 가능성을 낮게 평가하고 있으며, 이는 제공된 정보와 상충합니다. 원문에서는 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때 희망을 가져도 될 것이라고 언급하고 있습니다. 따라서, 생성된 응답은 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 귀하의 성적이 평균보다 높고 경쟁률이 낮아졌다는 점을 긍정적으로 평가하고 있지만, 생성된 응답은 합격 가능성이 낮다고 주장하고 있습니다. 이로 인해 두 응답 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 농어촌 전형에 대한 합격 가능성을 평가하는 데 관련된 정보를 제공하고 있습니다. 그러나 원문에서 강조한 긍정적인 요소를 간과하고 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 귀하의 성적이 평균보다 높다는 점을 무시하고 합격 가능성을 낮게 평가하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5464443429096848</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 영어 등급 점수를 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 합격 가능성은 낮을 것으로 보입니다. 일반적으로 농어촌 전형에서는 평균적인 성적보다는 특별한 사례나 활동이 더 중요하게 평가됩니다.
+하지만 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. **전형별 평균성적**: 해당 모집단위의 평균성적을 알아보세요.
+2. **최저 성적**: 최저 합격 점수를 확인하세요.
+3. **특이 사항**: 지원자의 특이한 활동이나 경험, 교사 추천서 등이 있는지 확인하세요.
+제공된 정보만으로는 정확한 판단을 내리기 어렵습니다. 더 자세한 정보나 전형별 평균성적 등을 확인하시거나, 대학 입학처에 문의하시는 것이 좋겠습니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 에서 추가 정보를 찾아보실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번에 대한 합격 가능성을 언급하고 있지만, 원문에서 제공된 특정 학과 목록을 언급하지 않고 있습니다. 따라서, 일부 정보가 누락되어 있어 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 예비 25번의 순위와 동점자 처리 기준에 대해 설명하고 있지만, 원문에서 제시된 특정 학과와의 연관성이 부족합니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원문에서 제시된 특정 학과 목록과의 연결이 부족하여 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 제시된 특정 학과에 대한 정보가 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질을 고려할 때, 생성된 응답은 일부 정보가 누락되어 있어 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절합니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.3862377480855084</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위는 동점자 처리 기준 중 상위 순위에 해당합니다. 따라서, 정시 일반학생 전형에서 25번이 나온 경우에도 붙을 확률은 있습니다.
+동점자 처리 기준은 다음과 같습니다:
+1. 면접고사 성적 상위자
+2. 서류평가 공동체역량 영역 성적 상위자
+3. 서류평가 전공적합성 영역 성적 상위자
+4. 교과 성적 상위자
+따라서, 25번이 나온 경우 면접고사 성적이 상위권에 속해있을 가능성이 높습니다. 이는 긍정적인 신호로 해석할 수 있습니다.
+하지만, 확실한 붙을 확률은 모릅니다. 서류평가와 면접평가에서의 성적과 답변 내용이 중요합니다. 특히, 학업역량, 전공적합성 등에 대한 준비가 필요합니다.
+추가적으로, 동점자 처리 기준 중 1위부터 4위까지 모두 고려되므로, 25번이 나온 경우에도 붙을 확률은 존재합니다. 하지만, 최종 결과는 면접평가와 서류평가에서의 성적과 답변 내용에 따라 결정됩니다.
+더 자세한 정보를 얻기 위해서는 입학사정관이나 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 부분이 많습니다. 원문에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법경찰행정학부에 대한 전형과 성적 기준을 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문에서 법경찰행정학부가 존재하지 않는다고 했음에도 불구하고, 생성된 응답에서는 해당 학부에 대한 정보를 제공하고 있습니다. 이는 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 제공하는 정보와는 다소 동떨어진 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 구조적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 나열되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7592620339336879</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 점수를 참고하시면 좋을 것 같습니다.
+1. **평생학습자전형/성인학습자(정원내·외)전형/재직자전형**:
+   - 이 전형에서는 학교생활기록부와 서류평가가 중요합니다.
+   - 평균적으로는 230점 이상의 성적을 받으면 안정권에 들 수 있습니다. 하지만 최종 등록자는 각 모집단위별 입학사정관이 평가하기 때문에 정확한 점수를 예측하기 어렵습니다.
+2. **학생부종합전형**:
+   - 이 전형에서는 학교생활기록부와 면접이 중요합니다.
+   - 법경찰행정학부의 경우, 일반적으로는 250점 이상의 성적을 받으면 안정권에 들 수 있습니다.
+3. **학생부교과전형**:
+   - 이 전형에서는 학교생활기록부와 교과성적이 중요합니다.
+   - 법경찰행정학부의 경우, 일반적으로는 260점 이상의 성적을 받으면 안정권에 들 수 있습니다.
+4. **학생부종합(조기취업형 계약학과전형)**:
+   - 이 전형에서는 학교생활기록부와 면접이 중요합니다.
+   - 법경찰행정학부의 경우, 일반적으로는 250점 이상의 성적을 받으면 안정권에 들 수 있습니다.
+**추천사항:**
+- **성적 확인**: 현재까지의 성적을 꼼꼼히 확인하고 평균 점수를 계산해보세요.
+- **서류 준비**: 학교생활기록부와 관련 서류들을 미리 준비하세요.
+- **면접 연습**: 면접이 포함된 전형이라면 면접 연습을 꼭 해보세요.
+**참고 링크:**
+https://ipsi.deu.ac.kr/main.do
+위 정보를 참고하시면 도움이 될 것 같습니다. 만약 더 자세한 내용이 필요하다면, 해당 사이트에서 공식 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 등급과 지원자의 정시 산출 등급을 비교하고 있지만, 원본 텍스트에서 제공된 아동학과의 평균 등급(영어 6.33, 수능 7.08)과는 관련이 없습니다. 따라서 일부 사실이 누락되었고, 정확한 정보가 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 아동학과와의 관련성을 명확히 하지 않아 일관성이 떨어집니다. 두 학과의 정보가 혼합되어 있어 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 정시 등급과 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 논의가 포함되어 있어 원본 텍스트와 관련이 있습니다. 그러나 아동학과에 대한 정보가 포함되어 있어 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 지원자의 정시 등급과 관련된 정보를 체계적으로 제시하고 있습니다. 그러나 아동학과와 보육가정상담학과의 정보가 혼합되어 있어 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 등급을 제공하지만, 원본 텍스트의 아동학과와 관련된 정보는 누락되어 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트와의 관련성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 아동학과와 보육가정상담학과의 혼합으로 인해 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보가 혼합되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6818566156717004</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 정시 학생부교과 전형에서 지원자의 등급 평균을 확인해보겠습니다. 
+보육가정상담학과는 나군에 속하며, 나군의 경우 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 산출됩니다.
+2024학년도 동의대학교 보육가정상담학과의 지원자들의 수능 4개 영역 등급 평균은 다음과 같습니다:
+- 평균: 5.31
+- 표준 편차: 0.28
+이제 지원자의 정시 산출 등급인 5.33을 보육가정상담학과의 지원자들의 수능 4개 영역 등급 평균인 5.31과 비교해보겠습니다.
+지원자의 정시 산출 등급(5.33)이 지원자들의 수능 4개 영역 등급 평균(5.31)보다 약간 높으므로, 이는 합격 가능성에 긍정적인 요인입니다. 그러나 실제 합격 여부는 경쟁률과 지원자의 전체 성적을 고려해야 하며, 정확한 합격 가능성을 알기 위해서는 동의대학교 입학처에서 제공하는 최종 합격자 명단이나 기타 정보를 확인해보시는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표와 관련된 정보를 포함하고 있지만, 예비 12번을 받은 경우의 합격 가능성을 높여준다는 주장은 원본 텍스트에서 명시된 내용과는 다소 다릅니다. 원본에서는 예비 번호가 12번일 경우 합격 가능성이 아예 없는 것은 아니라고 언급하고 있으나, 생성된 응답은 이를 더 긍정적으로 해석하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 예비 번호에 대한 해석이 다르기 때문에 일관성이 떨어집니다. 원본 텍스트는 예비 번호가 12번일 경우 합격 가능성이 있다고만 언급하고, 생성된 응답은 이를 더 확장하여 여러 요인에 따라 합격 가능성이 높아진다고 설명하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보(서류 평가와 면접 등)를 포함하고 있어 다소 주제를 벗어난 느낌이 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결이 다소 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 예비 번호에 대한 해석이 다소 과장되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 해석이 다소 긍정적으로 변형되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.5950918126366739</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>3차 충원 합격자 발표 이후에 예비 12번을 받으셨다면, 이는 합격 가능성을 높여줍니다. 그러나 최종 합격 여부는 여러 요인에 따라 결정되며, 서류 평가와 면접 등이 포함됩니다.
+서류 평가에서는 공동체역량, 학업역량, 전공적합성 등의 영역에서 높은 점수를 받으셨다면 좋은 결과를 기대할 수 있습니다. 특히, 동점자 처리기준에 따라 공동체역량과 학업역량이 중요하게 평가되므로 이 부분을 강조하는 것이 좋습니다.
+또한 면접에서도 자신의 경험과 열정을 잘 전달한다면 더 높은 점수를 받을 수 있습니다. 따라서, 서류와 면접에서 모두 최선을 다하시면 합격 가능성은 높아질 것입니다.
+만약에 추가로 도움이 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 평균 수능 점수를 잘못 언급하고 있으며, 지원 가능성에 대한 정보가 원본 텍스트와 일치하지 않습니다. 원본에서는 4.75의 성적으로 유아교육학과에 지원하기 어렵다고 명시하고 있지만, 생성된 응답은 충분한 경쟁력을 갖추고 있다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 유아교육학과에 대한 지원 가능성에 대한 결론이 서로 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 지원 가능 학과에 대한 구체적인 데이터와 비교할 때 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장 구조가 다소 복잡하여 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히, 유아교육학과에 대한 결론이 원본과 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 평균 수능 점수와 지원 가능성에 대한 정보가 부정확합니다. 원본 텍스트의 사실과 일치하지 않기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7786998370358611</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 상당히 높은 점수입니다. 평균이 4.47이고 표준 편차가 0.26인 전체 수험생 대비로 보면, 4.75는 매우 높은 등급으로 평가됩니다.
+유아교육학과의 경우, 지원 인원이 13명이고 모집 인원이 4명이므로 경쟁률이 높습니다. 평균 수능 점수인 426.80보다 약간 높은 편이며, 표준 편차가 11.08로 보면, 이 성적은 상위권에 속합니다.
+따라서 4.75라는 등급으로 유아교육학과를 지원한다면 충분히 경쟁력을 갖추고 있습니다. 그러나 최종 합격 여부는 서류평가와 면접평가 결과, 그리고 다른 지원자의 성적 및 평가 점수에 따라 결정되므로 확실한 것은 아닙니다.
+만약 더 자세한 정보나 조언이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 수능 최저기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 비교하여 합격 가능성에 대한 결론이 다릅니다. 원본 텍스트는 합격 가능성이 높다고 언급했으나, 생성된 응답은 낮다고 평가하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 합격 가능성이 높다고 했지만, 생성된 응답은 현재 환산등급으로는 경쟁에서 유리하지 않다고 주장합니다. 이러한 상반된 정보는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 추가 정보를 제공하며, 지원자의 수능 점수와 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결성이 떨어져서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하지만, 원본 텍스트의 합격 가능성에 대한 주장을 반박하는 내용이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6984539448863201</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과(아동학과)의 경쟁률과 수능 최저기준을 확인해보겠습니다.
+보육가정상담학과(아동학과)의 정보는 다음과 같습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 수능 최저기준 없음
+수능 최저기준이 없으므로, 합격 가능성은 지원자의 수능 점수가 해당 모집단위의 평균 수능 점수를 상회하는지 확인해야 합니다.
+보육가정상담학과(아동학과)의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 489.72입니다.
+당신의 환산등급이 4.16이라면, 이는 대략적으로 300-350 사이의 수능 점수를 의미합니다 (실제 변환점수와 비교하여 정확한 수준을 판단해야 합니다).
+보육가정상담학과(아동학과)의 평균 수능 점수가 489.72이므로, 현재의 환산등급으로는 경쟁에서 유리하지 않으며, 합격 가능성은 낮습니다.
+만약에 더 높은 수능 점수를 얻었다면, 충분히 합격 가능성이 있을 것입니다. 추합까지 생각한다면, 추가적인 지원자들의 수능 점수가 중요할 것입니다. 
+추가 정보나 자세한 분석이 필요하시다면, "https://ipsi. deu. ac. kr/main. do"를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트는 이 학과가 정시로 지원할 수 없다고 명확히 언급하고 있습니다. 따라서, 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 모집이 가능하다고 주장하고 있습니다. 이로 인해 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과의 입학 요건에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문인 정시 지원 가능성에 대한 답변과는 관련이 없습니다. 따라서 관련성 점수는 3입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 정보를 제공하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있습니다. 그러나 일부 정보는 관련이 있을 수 있으므로 점수는 2입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 일관성이 떨어져 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.419334864604747</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>ict융합공과대학 소프트웨어융합학과의 경우, 정시모집에 지원할 수 있습니다. 이 학과의 입학을 위해서는 평균적으로 4등급 이상의 점수를 받아야 합니다.
+이 점수는 '수능 4개 영역 (가산점 포함) 표준 변환 점수 합'에서 평균 397.20점 정도를 받은 것으로 추정할 수 있습니다. 이는 제공된 데이터 중 가장 높은 점수입니다.
+하지만, 정확한 등급을 결정하기 위해서는 해당 단과대학의 입학사정관이 평가하는 다양한 요소들을 고려해야 합니다. 따라서, 특정 학생의 경우, 4등급 이상이라도 충분히 경쟁력을 갖추지 못할 수도 있습니다.
+따라서, 정확한 등급을 결정하기 위해서는 해당 단과대학의 입학사정관이 평가하는 요소들을 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 직접 학교에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 평가의 주요 요소와 준비 방법에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 서류 평가와 관련된 세부 사항이 누락되어 있습니다. 그러나 면접 준비에 대한 정보는 대체로 정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 면접 준비에 대한 정보를 제공하지만, 원본 텍스트의 서류 평가와 관련된 내용과 일관성이 부족합니다. 면접과 서류 평가를 모두 포함해야 할 필요가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 면접 준비와 관련된 질문과 내용을 다루고 있어 원본 텍스트의 주제와 매우 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 단계별 설명이 명확합니다. 그러나 서류 평가와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 준비에 대한 정보는 정확하지만, 원본 텍스트의 서류 평가에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 원본 텍스트의 모든 요소를 포함하지 않아 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 서류 평가와 관련된 내용이 부족하여 완전한 적절성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.419003512181459</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접 평가에서는 주로 지원동기, 학업역량, 전공적합성 등에 대한 질문이 제시되며, 이와 관련된 세특 내용을 많이 보고 평가합니다. 따라서 면접 준비 시에는 다음과 같은 내용들을 잘 준비하는 것이 좋습니다:
+1. **지원동기 및 학업계획**: 지원 동기에 대해 명확하게 설명하고, 입학 후 어떤 학업 계획을 가지고 있는지 구체적으로 이야기해 보세요.
+2. **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 해결하기 위한 노력 등을 설명하세요.
+3. **전공적합성**: 지원하는 전공(계열)과 관련된 교내 활동, 동아리 활동, 진로 탐색 활동 등에 대해 이야기해 보세요.
+4. **면접 질문 공통문항**: 위에서 제공한 면접 질문 공통문항을 참고하여 답변 준비를 하세요.
+5. **서류 제출**: 서류 제출 시에는 학생부 온라인 제공 동의를 한 경우에만 학생부를 온라인으로 제공 받으므로, 이 점을 유의하세요. 검정고시 출신자나 외국 고교 졸업 예정자는 제출서류가 필요하지 않습니다.
+따로 준비해야 하는 서류는 없습니다. 하지만 면접에서 답변할 내용들을 잘 준비하고, 학생부와 동아리 활동 등에 대한 세특 내용을 많이 보고 이해하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 등급에 대한 정보와 관련이 없으며, 중어중국학과에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 소프트웨어공학부에 대한 정보를 제공하는 반면, 생성된 응답은 중어중국학과에 대한 정보를 다루고 있어 서로 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 소프트웨어공학부의 최초합격자 평균에 대한 질문에 대한 답변을 제공하는 반면, 생성된 응답은 중어중국학과에 대한 정보로 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 흐름이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 중어중국학과의 평균 등급에 대한 정보는 원본 텍스트와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성에서 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 주제와의 관련성이 떨어져 전체적인 이해를 방해합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7076593937908242</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 중어중국학과의 경우, 영어 등급 평균이 4.08입니다. 하지만 이는 단일 항목의 평균 점수이며, 정시 성적은 여러 요소를 종합적으로 고려합니다.
+정시 성적이 4.08인 경우, 중어중국학과의 최초합격자로 가능성을 높이기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 이 값은 평균 281.29이고, 표준 편차가 11.43입니다. 따라서 4.08의 영어 등급을 가진 지원자가 최초합격자로 선발될 수 있는 점수는 평균보다 높아야 합니다.
+2. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 이 값은 평균 395.63이고, 표준 편차가 12.03입니다. 따라서 4.08의 영어 등급을 가진 지원자가 최초합격자로 선발될 수 있는 점수는 평균보다 높아야 합니다.
+따라서 정시 성적이 4.08인 경우, 중어중국학과의 최초합격자로 선발될 가능성은 낮지만, 여전히 가능성이 있습니다. 실제 결과는 지원자의 총 점수와 경쟁률, 모집 인원 등 다양한 요소에 따라 결정됩니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하시거나, 대학 입학처와 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보가 없다는 점을 언급하고 있지만, 다른 학과들의 평균 등급을 확인할 수 있다는 내용은 원문에 명시된 정보와 일치하지 않습니다. 원문에서는 소프트웨어융합학과에 대한 정보가 없다고만 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 다른 학과들의 평균 등급을 확인할 수 있다는 부분에서 일관성이 떨어집니다. 원문에서는 소프트웨어융합학과에 대한 정보가 없다고 명확히 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 원문에서 제공된 정보에 대한 직접적인 언급이 부족합니다. 그러나 관련된 정보에 대한 질문을 제안하는 점은 긍정적입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 다소 상충하는 부분이 있어 정확성에서 점수를 낮추었습니다. 특히 다른 학과들의 평균 등급을 확인할 수 있다는 부분은 원문에 명시된 내용과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 적절하지만, 원문과의 일관성 및 정확성에서 부족함이 있어 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 다루고 있습니다. 그러나 원문과의 연결이 약간 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 원문과의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.7438343756532599</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "소프트웨어융합학과"에 대한 데이터가 없습니다. 다른 학과들의 평균 등급을 확인하실 수 있습니다. 
+특히, 정시 모집의 경우 각 학과마다 요구하는 영어 등급이 다를 수 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do) 또는 입학처에 직접 문의하시는 것이 좋습니다.
+만약 특정 학과의 평균 등급을 알고 싶으시다면, 관련 정보를 제공해 주시면 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학과에 합격 가능성을 여러 요인에 따라 설명하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 성적과 비교하여 합격 가능성을 판단하는 데 필요한 정보를 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되거나 불명확하게 표현되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 추가적인 요인들을 고려해야 한다는 점에서 일관성이 떨어집니다. 원본 텍스트는 성적이 평균보다 높다고 명확히 언급하고 있으나, 생성된 응답은 여러 요인을 고려해야 한다고 하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격 가능성에 대한 다양한 요인을 설명하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교하여 합격 가능성을 직접적으로 언급하지 않기 때문에 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하는 데 일관성을 유지하고 있습니다. 그러나 원본 텍스트의 결론과는 다소 다른 방향으로 흐르고 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하지만, 구체적인 수치와 비교하여 합격 가능성을 명확히 제시하지 않기 때문에 정확성이 떨어집니다. 원본 텍스트의 데이터와 비교하여 성적이 평균보다 높다는 점을 명확히 반영하지 못했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심적인 사실을 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 합격 가능성에 대한 다양한 요인을 설명하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교하여 다소 모호한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다. 그러나 전반적으로 명확한 설명을 제공하고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.606142067639421</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 수 있는지는 여러 요인들이 고려되어야 합니다.
+1. **단과대학 및 모집단위**: 동의대학교 신소재공학과는 특정 단과대학의 특정 모집단위를 의미합니다. 각 모집단위별로 지원자의 성적 평균, 표준 편차 등이 다릅니다. 따라서, 동의대학교 신소재공학과의 특정 모집단위에서의 성적 평균과 표준 편차를 확인해야 합니다.
+2. **성적 평균 및 표준 편차**: 제공된 데이터 중에서 "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"에 대한 평균과 표준 편차를 확인할 수 있습니다. 이 정보는 특정 단과대학의 특정 모집단위별로 다릅니다.
+3. **경쟁률**: 각 모집단위별 경쟁률도 중요한 요소입니다. 경쟁률이 높다면, 평균 성적이 더 높아야 합격할 확률이 높아지게 됩니다.
+4. **개인적 특성 및 서류평가**: 서류평가 영역에서의 성적 평가도 중요합니다. 공동체역량, 학업역량, 전공적합성 등에 대한 평가는 개인별로 다를 수 있습니다.
+따라서, 정확한 답변을 위해서는 동의대학교 신소재공학과의 특정 모집단위에서의 성적 평균, 표준 편차, 경쟁률 등을 확인해야 합니다. 이를 바탕으로 4.28이라는 성적이 어느 정도인지 판단할 수 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 자기소개서가 필요 없다고 명확히 언급하고 있지만, 생성된 응답은 일반 학생이 자기소개서를 작성할 필요가 없다고 잘못 해석하고 있습니다. 또한, 나군 전형에 대한 추가 요구 사항을 언급하고 있지만, 이는 원문과 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 다른 전형에 대한 정보를 추가하여 혼란을 초래하고 있습니다. 이로 인해 원문과의 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 불필요한 정보가 포함되어 있어 주제에서 벗어나 있습니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족합니다. 원문과의 연결이 약해 전체적으로 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않습니다. 자기소개서가 필요 없다는 원문의 주장을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 원문과의 관계가 전혀 없으며, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않습니다. 원문에서 요구하는 정보와는 전혀 다른 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 원문과의 연결이 부족하여 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4212929615157873</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生不需要写自传。对于韩国的大学入学考试（수능），一般学生类型（가군）的申请主要依赖于高考成绩和部分学校可能要求提交的补充材料，如推荐信等。但是，通常情况下并不需要单独撰写自传或个人陈述。
+如果申请的是学生部综合评价（나군）类型，则可能会有额外的要求，比如面试、面谈或者提交一些补充材料。具体是否需要写自传，请参考目标学校的详细要求。
+如果您不确定具体的申请要求，建议直接访问该大学的官方网站（https://ipsi. deu. ac. kr/main. do），查看最新的招生信息和指南。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하며, 수능 점수 4.5에 대한 합격 가능성을 평가하기 위해 필요한 요소들을 잘 설명하고 있습니다. 그러나, 원문에서 언급된 특정 학과의 평균 등급과 표준 편차에 대한 구체적인 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일관되며, 수능 점수와 관련된 합격 가능성에 대한 논의를 잘 이어가고 있습니다. 다만, 원문에서 강조된 각 학과의 평균 등급과 비교하는 중요성에 대한 언급이 부족하여 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 매우 관련이 깊으며, 수능 점수 4.5에 대한 합격 가능성을 평가하는 데 필요한 다양한 요소들을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창하게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보에 대해 정확하게 설명하고 있지만, 원문에서 제공된 구체적인 수치나 데이터에 대한 언급이 부족하여 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7582281369770638</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 수능 정시 모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+현재 제공된 데이터는 각 단과대학 및 모집단위별 경쟁률, 지원 인원 등이 포함되어 있습니다. 하지만 특정 학생의 수능 점수 4.5로 어떤 단과대학이나 모집단위에 들어갈 수 있을지 정확히 예측하기 위해서는 더 많은 정보가 필요합니다.
+1. **모집단위별 경쟁률**: 각 모집단위의 경쟁률을 확인해야 합니다. 경쟁률이 높은 모집단위에서는 4.5라는 점수로 충분한 확률로 합격할 수 있지만, 경쟁률이 낮은 모집단위에서는 더 높은 점수가 필요할 수 있습니다.
+2. **모집인원 및 지원 인원**: 각 단과대학의 모집인원과 지원 인원을 확인해야 합니다. 예를 들어 한의예과는 3명 모집인데 21명이 지원하면 경쟁률이 높아서 4.5로 합격할 확률은 낮을 수 있습니다.
+3. **수능 반영 영역 및 가산점**: 각 단과대학에서 수능을 어떻게 반영하는지 확인해야 합니다. 일부 모집단위에서는 수학 미적분 또는 기하를 응시한 경우에만 10%의 가산점을 주므로, 이 점도 고려해야 합니다.
+4. **추가모집 정보**: 추가모집이 있을 경우에는 그 정보도 참고해야 합니다. 추가모집 시에도 경쟁률과 지원 인원 등을 확인해야 합니다.
+따라서, 특정 단과대학이나 모집단위에 들어갈 수 있는지 정확히 예측하기 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 직접 동의대학교 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 등급에 대한 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 다른 학과의 합격 기준에 대한 언급을 포함하고 있어 일관성이 부족합니다. 원본 텍스트와의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부에 대한 질문에 대한 답변으로는 적절하지 않지만, 합격 기준을 확인하는 방법에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 다루지 않기 때문에 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보나 오해를 불러일으킬 수 있는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6716902132783359</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 신소재공학부에 대한 특정 합격 기준 점수나 등급이 포함되어 있지 않습니다. 해당 정보는 인문사회과학대학, 상경대학, 의료·보건·생활대학, 공과대학, ICT융합공과대학 등의 학과별 합격 기준을 다루고 있습니다.
+신소재공학부의 정시 합격 기준을 확인하려면, 동의대학교의 공식 웹사이트를 방문하여 최신 정보를 확인하거나, 해당 대학에 직접 문의하는 것이 가장 정확한 방법입니다. 
+https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학처로 연락주시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 부족하고, 447점이 작년 평균보다 높다는 사실을 명확히 반영하지 못하고 있습니다. 또한, "작년보다 약간 낮은 점수로도 충분히 합격이 가능합니다"라는 주장은 다소 모호하며, 원문에서 제공된 정보와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다고 해도"라는 부분은 원문에서 제공된 378.15점과 상충합니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원문에서 제공된 구체적인 점수 정보와 비교할 때 다소 부족합니다. 그러나 전반적으로 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 일부 내용이 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 점수 정보를 반영하지 못하고 있으며, 잘못된 해석이 포함되어 있습니다. 특히, 평균 점수에 대한 언급이 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 일부 내용은 원문과의 일치성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7948434820223739</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2023년 동아대학교 정시에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높았던 것으로 보입니다. 하지만 표준점수 환산 시에는 여러 요인들이 고려되므로, 작년보다 약간 낮은 점수로도 충분히 합격이 가능합니다.
+현재의 표준점수와 작년의 최종 평균 점수를 비교할 때 다음과 같은 점을 주목해야 합니다:
+1. **표준점수 변동**: 작년과 올해의 표준점수가 어떻게 변동했는지 확인해야 합니다.
+2. **모집인원 및 지원자 수**: 작년과 올해의 모집인원, 지원자 수가 어떻게 달라졌는지 파악합니다.
+3. **경쟁률**: 작년과 올해의 경쟁률이 어떻게 변했는지를 확인합니다.
+만약 작년보다 표준점수가 약간 낮아진다면, 작년에 비해 더 많은 지원자가 합격할 수 있는 가능성은 있습니다. 그러나 이는 확실한 보장이 아니라, 가능성을 높이는 요인일 뿐입니다.
+따라서, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다고 해도, 현재 표준점수 환산 시 447점으로 충분히 합격할 수 있는 가능성은 있습니다. 하지만 이는 입시 전략을 세우는데 참고할 만한 정보일 뿐입니다.
+더 자세한 정보를 얻기 위해서는 동아대학교의 공식 웹사이트나 입학처에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부의 합격 가능성에 대한 정보를 제공하고 있으며, 성적에 대한 평가와 관련된 내용을 포함하고 있습니다. 그러나, "4.3 등급의 수능 성적"이라는 언급은 원본 텍스트에서 제시된 성적 범위와 다소 차이가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, "4.3 등급"이라는 언급이 원본 텍스트의 성적 범위와 일치하지 않아 일관성이 떨어집니다. 또한, 다른 평가 항목에 대한 언급이 추가되어 있지만, 원본 텍스트의 주된 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 동의대학교 신소재공학부의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나, 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, "4.3 등급"이라는 언급이 원본 텍스트의 성적 범위와 다소 차이가 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 다만, 일부 표현이 원본 텍스트와 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6081927475059957</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 성적이 정시 성적 산출 방법에 따라 4.1~4.2 정도로 평가된다면, 동의대학교 신소재공학부 일반학생전형에서는 합격 가능성이 있습니다만, 확실한 것은 경쟁률과 모집인원에 따라 다릅니다.
+신소재공학부 일반학생전형의 경우, 수능 성적은 주요 평가 요소 중 하나이지만, 다른 평가 항목들(예: 학업역량, 전공적합성 등)도 함께 고려됩니다. 따라서, 단순히 수능 성적이 좋은 것만으로는 결정되지 않습니다.
+추천드리면:
+1. 동의대학교 신소재공학부 일반학생전형의 최신 경쟁률과 모집인원을 확인하세요.
+2. 자신의 학업역량, 전공적합성 등 다른 평가 항목들도 강화해보세요.
+3. 입학사정관들의 평가를 얻기 위한 활동이나 경험들을 쌓아보세요.
+이런 정보들이 도움이 되길 바랍니다. 더 자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 전형 성적 산출 방법에 대한 설명을 포함하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터(모집 인원, 지원 인원, 경쟁률 등)를 명시하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 구체적인 성적 기준에 대한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트의 세부 사항을 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 성적 산출 방법에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 성적 산출 방법에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트의 세부 사항이 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 전형 성적 산출 방법에 대한 설명을 포함하고 있지만, 원본 텍스트의 구체적인 성적 데이터가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실을 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 수능 전형 성적 산출 방법에 대한 설명이 적절합니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 성적 산출 방법에 대한 설명이 명확합니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7312887118705232</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과에 지원하려면, 수능 전형성적 산출방법을 알아보는 것이 중요합니다. 현재 제공된 정보로는 인공지능학과에 대한 특별한 성적 기준이 명시되어 있지 않으므로, 일반적으로 적용되는 가군(일반학생전형)의 수능 전형성적 산출 방법을 참고하겠습니다.
+가군(일반학생전형)의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급점수
+- 탐구 표준점수
+따라서, 동의대학교 인공지능학과에 지원하려는 학생에게 필요한 성적은 위와 같은 항목들입니다. 각 과목별로 표준점수를 얻고, 영어 등급을 점수로 변환하여 총점을 산출해야 합니다.
+예시로, 다음과 같은 성적이 있다고 가정해보겠습니다:
+- 국어: 105 (표준점수)
+- 수학(미적분): 109 (표준점수)
+- 영어: 4등급 (점수는 131)
+- 탐구: 과학탐구, 물리Ⅰ, 화학Ⅰ의 표준점수 각각 52, 60, 70
+이 경우, 총점을 계산하면 다음과 같습니다:
+(국어 + 수학 + 영어 등급점수 + 탐구) = (105 + 109 + 131 + 52 + 60 + 70) / 4 = 487 / 4 = 121.75
+따라서, 이 학생의 총점은 121.75가 됩니다.
+실제 지원 시에는 각 과목별 표준점수와 영어 등급 점수가 정확히 알려져야 합니다. 따라서, 실제 성적을 확인하려면 동의대학교 입학처 웹사이트나 관련 정보를 확인하는 것이 좋습니다. 더 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 구체적인 정보를 제공하지 않고, 학생부종합전형에 대한 일반적인 설명을 하고 있습니다. 이는 원본 텍스트의 구체적인 내용과 일치하지 않으며, 사실적인 정보가 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트에서 제공된 구체적인 학과와 성적 정보를 무시하고, 일반적인 전형에 대한 설명으로 대체하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 입학 전형에 대한 정보를 제공하지만, 질문자가 요청한 5.27 성적에 대한 충원 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 주제를 가지고 있지만, 원본 텍스트의 구체적인 정보와는 관련이 적어 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 정보만을 제공하므로 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 여러 품질 차원에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5844948420272028</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 나군에서의 학생부종합전형은 서류평가와 면접평가를 포함하여 총점으로 결정되며, 성적 외에도 다양한 요소가 고려됩니다.
+특히, 5.27이라는 성적만으로는 추합 가능성을 판단하기 어렵습니다. 동의대학교의 경우 학생부종합전형에서 서류평가와 면접평가가 큰 비중을 차지하므로, 성적이 좋은 것만으로도 추합이 가능한 것은 아닙니다.
+추천드리면, 동의대학교의 모집단위별 정원외 모집인원과 전형요소 반영비율 등을 확인하시고, 자신의 서류와 면접 준비가 잘 되어 있는지 점검해보시는 것이 좋습니다. 또한, 해당 대학의 입학처 웹사이트나 'https://ipsi. deu. ac. kr/main. do'를 통해 최신 정보와 자세한 전형요건을 확인하시기 바랍니다.
+이러한 정보들을 종합적으로 고려하여 추합 가능성을 판단하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 정시 성적 4.2에 대한 합격 가능성을 평가하고 있습니다. 그러나 수능 평균 점수에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 일부 정보가 추가되었지만 전반적으로 정확한 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 수능 평균 점수와 같은 추가적인 정보가 포함되어 있어 일관성이 다소 떨어질 수 있습니다. 원본 텍스트의 정보와는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 성적 4.2에 대한 합격 가능성을 평가하는 데 필요한 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있습니다. 그러나 수능 평균 점수와 같은 추가 정보는 원본에 명시되어 있지 않으므로, 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 추가된 정보가 원본과의 맥락에서 약간의 차이를 보일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6956162111102944</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적인 4.2 점수로 합격 가능성은 어느 정도일지 평가해보겠습니다.
+소프트웨어공학부는 전형요소 반영비율에서 수능이 100% 반영되는 수능 위주 전형입니다. 따라서, 지원자의 성적을 고려할 때 다음과 같은 점들을 주목해야 합니다:
+- **수능 평균 점수**: 소프트웨어공학부의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 370.10입니다.
+- **정시 성적 평균**: 지원자의 정시 성적이 4.2로, 이는 대체적으로 좋은 성적입니다.
+정시 성적인 4.2를 소프트웨어공학부의 수능 평균 점수와 비교하면, 지원자의 성적이 약간 낮은 편이지만, 여전히 합격 가능성은 있습니다. 특히, 수능 점수가 높다면 더 큰 경쟁력을 갖출 수 있을 것입니다.
+따라서, 정시 성적인 4.2로 소프트웨어공학부에 합격하는 것은 가능하지만, 확실한 합격을 보장받기 위해서는 수능 점수가 높아야 합니다. 또한, 경쟁률과 지원 인원 등을 고려하면, 낮은 경쟁률을 가진 모집단위를 선택하거나, 다른 전형(예: 학생부교과)을 통해 지원하는 것이 더 유리할 수 있습니다.
+만약 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 3.92라는 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 구체적인 정시 모집군이나 수능 최저 기준에 대한 정보가 부족하다는 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 정보 요청이 필요하다는 점에서 일관성이 떨어집니다. 원본 텍스트는 3.92 성적이 합격 가능성이 높다고 명확히 언급하고 있으나, 생성된 응답은 그 가능성을 확실히 하지 않고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 화학환경공학부의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 정보의 흐름이 약간 끊기는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 수능 최저 기준과 같은 구체적인 정보가 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.750484224889378</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92이라는 성적이 주어졌을 때, 화학환경공학부 일반 학생 전형에 지원이 가능한지 판단하기 위해서는 해당 학과의 정시 모집군과 수능 최저 기준 등을 확인해야 합니다.
+현재 제공된 정보로는 특정 단과대학의 정시 모집 군이나 수능 최저 기준 등이 명확히 나와 있지 않습니다. 따라서, 화학환경공학부 일반 학생 전형에 지원이 가능한지 판단하기 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. **화학환경공학부의 정시 모집 군**: 현재 제공된 정보에서 특정 단과대학의 정시 모집 군이 명확히 나와 있지 않으므로, 해당 학교의 웹사이트나 입학처에 직접 문의하여 확인해야 합니다.
+2. **수능 최저 기준**: 화학환경공학부 일반 학생 전형에 지원하려면 수능 최저 기준을 충족해야 합니다. 이 정보도 해당 학교의 웹사이트나 입학처에서 확인할 수 있습니다.
+3. **성적 평균**: 3.92이라는 성적이 주어졌으므로, 이 성적 평균이 화학환경공학부 일반 학생 전형에 지원하기 위한 충분한 기준일지 여부를 판단해야 합니다. 이 역시 해당 학교의 웹사이트나 입학처에서 확인할 수 있습니다.
+따라서, 정확한 답변을 위해서는 해당 대학의 공식 웹사이트나 입학처에 직접 문의하여 확인하는 것이 가장 좋습니다. 더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 성적 기준에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 점수와 비교할 때 일부 정보가 부정확합니다. 예를 들어, 평균 영어 등급 점수가 4.70인데, 생성된 응답에서는 4.65로 잘못 언급되었습니다. 또한, 주어진 성적이 평균보다 높다고 판단한 원본 텍스트의 결론과는 다르게, 생성된 응답에서는 성적이 낮다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 주어진 성적이 평균보다 높다고 판단했으나, 생성된 응답에서는 성적이 평균보다 낮다고 언급하고 있어 상충되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 성적 기준에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 성적에 대한 판단이 상충되므로, 응답의 일관성이 약해집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 관련된 정보가 부정확하여 정확성 점수가 낮습니다. 주어진 성적에 대한 판단도 원본 텍스트와 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트와의 차이로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6873984166071653</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 정시 성적 기준을 확인해보겠습니다.
+화학환경공학부는 인문사회과학대학, 상경대학 모집단위에 속하며, 수능 일반학생전형의 경우 다음과 같은 점수를 요구합니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급점수
+- 탐구 표준점수
+주신 성적은 4.25이며, 이는 영어 등급에 해당됩니다. 동의대학교 화학환경공학부의 평균 영어 등급 점수가 4.65로 주신 성적이 조금 낮습니다.
+그러나 합격 가능성은 주관적인 요인과 경쟁률에 따라 달라질 수 있습니다. 예를 들어, 지원 인원이 적거나 경쟁률이 낮다면 주신 성적도 충분히 합격할 수 있습니다.
+따라서 정확한 답변을 위해서는 2024학년도 동의대학교 화학환경공학부의 모집 인원과 지원 인원, 그리고 실제 평균 점수와 경쟁률 등을 확인해야 합니다. 
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 제공된 데이터와 일치하며, 영화학과의 평균 성적과 관련된 정보를 정확하게 반영하고 있습니다. 4.2라는 점수에 대한 해석도 적절합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보에 대한 해석이 일관성을 유지하고 있습니다. 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 영화학과의 합격 가능성에 대한 정보가 잘 반영되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 전체적으로 일관된 메시지를 전달합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6679582428365994</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 분석해보겠습니다.
+영화학과의 경우, "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균이 286.77이고 표준 편차가 17.29입니다.
+제시된 성적 4.2는 이 기준에 비해 상당히 높습니다. 현재 제공된 데이터에서 영화학과의 평균 점수가 286.77이므로, 4.2라는 점수는 매우 우수한 성적으로 보입니다.
+하지만 정확한 합격 가능성은 지원자의 전체 서류와 면접 성적을 포함하여 총괄적으로 판단해야 합니다. 따라서 다음과 같은 절차를 따르시면 좋을 것 같습니다:
+1. **서류평가**: 제출된 서류의 내용이 진실성과 적합성을 갖추고 있는지 확인하세요.
+2. **면접평가**: 면접에서 지원동기와 학업계획, 전공적합성에 대한 답변이 명확하고 탄탄한지를 준비하세요.
+현재 제공된 데이터만으로는 확정적인 결론을 내리기는 어렵지만, 4.2라는 점수는 매우 우수하므로 합격 가능성은 높다고 볼 수 있습니다. 하지만 최종 결정은 입학사정관들의 평가를 기다려야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 원본 텍스트의 내용을 대부분 정확하게 반영하고 있습니다. 그러나 추가된 정보(입학사정관 2인, 개인 신상 정보 노출 금지 등)는 원본 텍스트에 포함되어 있지 않으므로, 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 잘 따르고 있지만, 추가된 정보가 원본과 일치하지 않기 때문에 일관성 점수가 낮습니다. 원본 텍스트에 없는 내용이 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다. 추가된 정보도 면접과 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽한 유창성은 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차에 대한 설명이 명확합니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일관성과 정확성에서 약간의 부족함이 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8594839992845739</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 입학사정관 2인이 평가위원으로 참여하여 수험생 1명을 대상으로 개별적 평가를 진행합니다. 또한, 면접 시 개인 신상 정보 (수험번호, 성명, 출신고교, 부모 직업 등) 노출 금지 및 교복 착용 금지를 준수해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
